--- a/topic_identify/爬取字段9.20.xlsx
+++ b/topic_identify/爬取字段9.20.xlsx
@@ -7,14 +7,19 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$B$178</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="544">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -895,382 +900,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">【中国稳健前行】“两个毫不动摇”为经济奇迹奠定坚实制度基础 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/342152761_117159?g=0?code=44c68b092ac687f8e202d2a59be72d&amp;spm=smpc.home.top-news1.9.15689633806400yqaU7b&amp;_f=index_cpc_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原标题：【中国稳健前行】“两个毫不动摇”为经济奇迹奠定坚实制度基础
-编者按：新中国成立70年来，在中国共产党的坚强领导下，我国经济社会发展经历了不平凡的伟大历程，取得了举世瞩目的辉煌成就，“中国号”巨轮乘风破浪，向着民族复兴的伟大目标稳健前行。为充分展现中国特色社会主义制度所带来的政治稳定、经济发展、文化繁荣、社会和谐、生态良好、人民幸福的巨大优势，中央网信办与求是杂志社联合组织策划“中国稳健前行”系列理论文章，邀请思想理论界专家学者进行深入阐述，今日在求是网推出第28篇，敬请关注。
-内容摘要：正是在坚持“两个毫不动摇”的过程中，中国创造了世所罕见的经济发展奇迹。实践证明，毫不动摇巩固和发展公有制经济，毫不动摇鼓励、支持、引导非公有制经济发展，将二者有机统一起来，推动各种所有制经济健康发展，这是坚持完善我国基本经济制度的根本要求。坚持公有制为主体，促进非公有制经济发展，必须统一于社会主义现代化建设的实践进程，既不能把这两者对立起来，也不能偏废任何一方。我们必须一如既往地坚持和完善中国特色社会主义基本经济制度，更好坚持“两个毫不动摇”，推进中国经济行稳致远。
-“两个毫不动摇”即“毫不动摇巩固和发展公有制经济”“毫不动摇鼓励、支持、引导非公有制经济发展”，是中国共产党对多年来坚持和发展基本经济制度成功经验的高度概括。正是在坚持“两个毫不动摇”的过程中，我们创造了世所罕见的经济发展奇迹。
-一、 坚持完善基本经济制度的根本要求
-生产资料所有制是社会经济制度的基础，是决定社会性质和发展方向的根本因素。新中国成立后，我国建立了以生产资料公有制为基础的社会主义经济制度，成功实现了中国历史上最深刻最伟大的社会变革，为生产力的发展开辟了广阔道路。改革开放以来，我国确立了公有制为主体、多种所有制经济共同发展的社会主义初级阶段的基本经济制度，为经济持续快速发展提供了坚实的制度基础，这是中国共产党确立的一项大政方针，是中国特色社会主义制度的重要组成部分，也是完善社会主义市场经济体制的必然要求。
-实践证明，坚持和发展中国特色社会主义，推动我国经济持续健康发展，必须不断坚持完善我国的基本经济制度，毫不动摇巩固和发展公有制经济，毫不动摇鼓励、支持、引导非公有制经济发展，将二者有机统一起来，这是坚持完善我国基本经济制度的根本要求。
-毫不动摇地巩固和发展公有制经济，有利于落实以人民为中心的发展思想、贯彻新发展理念；有利于集中力量办大事，加强完善宏观调控；有利于保障人民共同利益、实现共同富裕；有利于维护国家安全、推进自主发展。
-毫不动摇地鼓励、支持、引导非公有制经济发展，有利于促进增长、增加就业、改善民生、推进创新，增强经济的活力。我国民营经济只能壮大、不能弱化，而且要走向更加广阔的舞台。
-改革开放40多年来，正是因为我们坚持“两个毫不动摇”，调动公有制经济和非公有制经济两个方面的积极性，发挥两个方面的优势，所以公有制经济和非公有制经济都得到了充分的发展，我国的社会生产力、经济实力、科技实力、综合国力大大增强，人民生活水平、居民收入水平、社会保障水平显著改善。实践证明，只有坚持“两个毫不动摇”，既不搞单一公有制，也决不搞全盘私有化，才能始终坚持和发展中国特色社会主义，实现全面建成社会主义现代化强国的目标。
-二、夯实社会主义市场经济的根基
-社会主义市场经济是与社会主义基本制度相结合的新型市场经济，社会主义基本经济制度是社会主义市场经济的根基。深化经济体制改革、完善社会主义市场经济体制，一个关键环节，就是要适应市场经济的要求，不断坚持完善我国的基本经济制度，形成能够更好地实现社会主义基本制度与市场经济相结合、更好发挥社会主义制度优势和市场经济长处的社会主义市场经济体制。
-公有制的主体地位必须始终坚持，但公有制经济的实现形式和体制机制必须随着生产力的发展而不断改革完善。改革开放以来，我国国有企业改革以增强企业活力为起点，先后经历放权让利、制度创新、战略性调整和分类推进改革等阶段，与市场经济的融合日益紧密，在市场竞争中不断发展壮大。2019年进入《财富》世界500强的中国企业达到129家，其中国有企业上榜89家，且排名不断上升，向着具有全球竞争力的世界一流企业稳步迈进。
-集体所有制经济是社会主义公有制经济的重要组成部分，是公有制经济的一种重要实现形式。改革开放以来，我国城乡集体经济发展迅速，逐步形成具有效率和活力的社会主义集体所有制经济发展的新形式。农村以生产资料的集体所有为基础，实行家庭联产承包经营、统分结合的双层经营体制，解放和发展了我国农村生产力，调动了广大农民的积极性，农村集体经济在产业融合发展、减困脱贫中释放出新的活力，有效推动了我国农村各项事业的快速发展。
-非公有制经济是社会主义市场经济发展的重要力量。我国非公有制经济从小到大、由弱变强，是改革开放以来在中国共产党的方针政策指引下发展起来的。改革开放以来，我国非公有制经济快速发展。比如民营经济就具有“五六七八九”的特征，即贡献了50%以上的税收，60%以上的国内生产总值，70%以上的技术创新成果，80%以上的城镇劳动就业，90%以上的企业数量，已成为经济社会发展的重要基础。促进非公有制经济健康发展，既要政府的引导和支持，又要企业自身的完善和发展，要着力构建既“亲”又“清”的新型政商关系。
-三、促进多种所有制经济共同发展
-坚持公有制为主体，促进非公有制经济发展，必须统一于社会主义现代化建设的实践进程，既不能把这两者对立起来，也不能偏废任何一方。公有制经济和非公有制经济都是社会主义市场经济的重要组成部分，都是我国经济社会发展的重要基础。公有制经济、非公有制经济应该相辅相成、相得益彰，而不是相互排斥、相互抵消。
-坚持以公有制为主体，发挥国有经济的主导作用，有利于引导国民经济的稳定协调健康发展，为民营经济发展提供良好的宏观环境。民营经济的健康发展有利于为国有经济的发展提供良好的市场环境。必须看到，我国国有企业和民营企业已经形成了完整的产业链。国有企业多处于产业链上游，在基础产业和重型制造业等领域发挥作用，民营企业越来越多地提供制造业产品特别是最终消费品，两者是高度互补、互相合作、互相支持的关系，未来中国经济将沿着这个方向不断提高，走向高质量发展。
-积极发展混合所有制经济，推进公有制经济与非公有制经济相互促进、相互融合。国有资本、集体资本、非公有资本等交叉持股、相互融合的混合所有制经济，是社会主义基本经济制度的重要实现形式，也是多种所有制经济共同发展的重要载体。发展混合所有制经济有利于公有制经济和非公有制经济之间实现优势互补、资源共享、体制相融、共同发展，有利于国有资本放大功能、保值增值、提高竞争力，形成新的制度形式和竞争优势。促进国有经济和民营经济在更大范围和领域的“我中有你，你中有我”，国有企业和民营企业相互竞争、相互合作，形成“国进民进”协调发展的新格局。
-四、在新时代更好坚持完善基本经济制度
-坚持“两个毫不动摇”，加快完善社会主义市场经济体制，推动经济转型升级。完善社会主义市场经济体制必须深化国有企业改革，着力破除体制机制障碍，加快推动国有经济布局结构调整优化步伐，扎实推进战略性重组。加快完善国有资产管理体制步伐，改革国有资本授权经营体制，探索各种所有制经济深度合作的途径和办法。完善社会主义市场经济体制必须支持民营企业发展，破除各种隐性壁垒，全面实施市场准入负面清单制度，清理废除妨碍统一市场和公平竞争的各种规定和做法，破除各种“玻璃门”“旋转门”“弹簧门”，努力为民营企业降门槛、减手续、添动力。
-坚持“两个毫不动摇”，着力建设现代化经济体系，推进高质量发展。现代化经济体系是适应高质量发展阶段的经济体系。必须坚持“两个毫不动摇”，充分发挥不同所有制经济的优势，促进各类所有制经济公平竞争、合作共荣，这样才能推动整个国民经济的高质量发展。公有制经济尤其是国有企业在保障人民共同利益、重大科技攻关、发展实体经济和维护国家安全等方面具有优势，在事关国家发展重大战略和国计民生重大事业方面发挥重要作用。而非公有制经济尤其是企业在满足市场多层次多样化需求、提升供给质量和促进更为平衡、更为充分的发展等方面具有自身的优势。
-坚持“两个毫不动摇”，着力构建全面开放新格局，推动高水平对外开放。进入新时代，开放也要上水平、提质量。推进全面开放新格局，不仅意味着扩大开放的范围、拓宽开放的领域、加深开放的层次，还意味着创新方式、优化布局、提升质量。推进全面开放新格局必须发挥公有制经济与非公有制经济各自的作用，既要鼓励中国企业尤其是大型企业走出去；又要大幅度放宽市场准入、保护外商合法权益。既要发挥国有企业在“一带一路”建设中的主力军作用；又要发挥民营企业重要作用，优化我国对外投资战略布局。坚持“引进来”与“走出去”更好结合，坚持引资和引技、引智并举，加强在创新领域的各种形式合作，促进经济迈向中高端水平。要在推动公有制经济和非公有制经济共同发展中，充分利用国际国内两个市场、两种资源，培育一批国际化经营人才，形成一批在国际资源配置中占主导地位的领军企业。
-中国特色社会主义进入新时代，我国社会主要矛盾已经转化为人民日益增长的美好生活需要和不平衡不充分的发展之间的矛盾。我们必须一如既往地坚持和完善社会主义基本经济制度，更好坚持“两个毫不动摇”，推进中国经济行稳致远。“两个毫不动摇”也必将为实现“两个一百年”奋斗目标和中华民族伟大复兴的中国梦发挥新的更大作用。
-（作者 葛扬 南京大学经济学院副院长、教授）
-推荐阅读：
-【中国稳健前行】中国特色社会主义实践的独特魅力
-【中国稳健前行】党的领导是中国发展的核心优势
-【中国稳健前行】中国共产党为什么能够创造奇迹
-【中国稳健前行】中国成就源自党领导下的有效治理
-【中国稳健前行】中国经济为什么能够行稳致远
-【中国稳健前行】以新发展理念引领我国经济高质量发展
-【中国稳健前行】破解政府和市场关系的世界性难题
-【中国稳健前行】中国经济的自主发展之路
-【中国稳健前行】厚植文化自信 增强战略定力
-【中国稳健前行】中国特色社会主义理论体系的思想力量
-【中国稳健前行】当我们谈论“民主”时，在谈些什么？
-【中国稳健前行】中国民主道路的四条经验
-【中国稳健前行】从国际比较看中国政治优势
-【中国稳健前行】“中国奇迹”背后的政治动因
-【中国稳健前行】“中国之治”的政治保证
-【中国稳健前行】中国特色社会主义民主的特点和优势
-【中国稳健前行】法治建设是中国持续发展的重要保障
-【中国稳健前行】依法治国的中国经验
-【中国稳健前行】锻造中华民族伟大复兴的中流砥柱
-【中国稳健前行】勇于自我革命：中国共产党的鲜明品格
-【中国稳健前行】理想信念坚定是中国共产党人的政治优势
-【中国稳健前行】中国共产党的伟大践行、捍卫与创新
-【中国稳健前行】当代中国发展的文化优势
-【中国稳健前行】高度文化自信为发展校准航向
-【中国稳健前行】法治铸就平安中国
-【中国稳健前行】司法改革让人民群众感受公平正义
-【中国稳健前行】开放是当代中国的鲜明标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>求是网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">联播+ | 造福人民的幸福河！习近平勾勒黄河流域美好未来 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/342197268_428290?g=0?code=eb4fd100761d5d16ee65bd2d31dedb9f&amp;spm=smpc.home.top-news1.1.15689633806400yqaU7b&amp;_f=index_cpc_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>央视网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原标题：联播+ | 造福人民的幸福河！习近平勾勒黄河流域美好未来
-联播+9月18日，习近平在河南主持召开黄河流域生态保护和高质量发展座谈会时强调，要共同抓好大保护，协同推进大治理，着力加强生态保护治理、保障黄河长治久安、促进全流域高质量发展、改善人民群众生活、保护传承弘扬黄河文化，让黄河成为造福人民的幸福河。
-在中国辽阔的版图上，北有黄河，南有长江，两条大河自西向东奔流入海，哺育了中华民族，孕育了中华文明。
-保护母亲河是事关中华民族伟大复兴和永续发展的千秋大计！
-如何开创黄河流域生态保护和高质量发展新局面？央视网《联播+》和您一起聆听总书记的殷殷嘱托。
-（中央广播电视总台央视网）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">河南考察，习近平提出了哪些重要要求？ 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/342114705_267106?g=0?code=64546c0e8f56ac3f38234b49b7e2e408&amp;spm=smpc.home.top-news1.2.15689633806400yqaU7b&amp;_f=index_cpc_1_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原标题：河南考察，习近平提出了哪些重要要求？
-　　新华网 潘子荻
-【学习进行时】9月16日至9月18日，习近平总书记在河南考察。这次考察有何特点？总书记提出了哪些重要要求？新华社《学习进行时》原创品牌栏目“讲习所”今天推出文章，为您解读。
-9月16日至18日，习近平总书记来到河南省考察调研。他先后在信阳、郑州等地深入革命老区、农村、企业，强调要认真贯彻落实党中央决策部署，坚持稳中求进工作总基调，坚持新发展理念，统筹做好稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作，打好三大攻坚战，促进经济持续健康发展和社会和谐稳定，不断增强人民群众获得感、幸福感、安全感，在中部地区崛起中奋勇争先，谱写新时代中原更加出彩的绚丽篇章。
-这是时隔5年之后总书记又一次到河南考察调研。在庆祝新中国成立70周年前夕，习近平此次考察，提出一系列重要要求，涵意非常丰富。
-“吃水不忘掘井人”
-大别山区的信阳市新县，是鄂豫皖苏区首府所在地。鄂豫皖苏区是中国共产党在土地革命战争时期领导创建的根据地之一，是仅次于中央苏区的第二大革命根据地，诞生了多支红军主力，创造了“28年红旗不倒”的奇迹。
-16日下午，习近平首先来到鄂豫皖苏区首府烈士陵园，瞻仰革命烈士纪念碑、纪念堂，远眺英雄山上“红旗飘飘”主题雕塑。在纪念碑前，习近平向革命先烈敬献花篮并三鞠躬，深情缅怀为革命胜利献出宝贵生命的英雄儿女。
-这一幕饱含深情，也并不陌生。
-每次到革命老区考察调研，习近平都去瞻仰革命历史纪念场所，同大家一起回忆先辈们探寻革命道路时筚路蓝缕、艰辛奋斗的岁月。
-此次河南之行，习近平将鄂豫皖苏区首府烈士陵园作为第一站，缅怀先烈，告慰英灵。联系到庆祝新中国成立70周年这一时间节点，总书记这项安排显然具有极为深刻的用意。
-正如他强调的，“吃水不忘掘井人”，红色江山来之不易，是千千万万革命前辈用鲜血换来的。我们要牢记红色政权是从哪里来的，始终铭记缅怀革命先烈。
-习近平强调，开展“不忘初心、牢记使命”主题教育，广大党员、干部要不断接受红色传统教育，巩固升华理想信念，坚定走中国特色社会主义道路，奋力实现“两个一百年”奋斗目标，告慰革命先烈。
-“不仅要脱贫，而且要致富”
-“我们实现第一个百年奋斗目标、全面建成小康社会，没有老区的全面小康，特别是没有老区贫困人口脱贫致富，那是不完整的。”这是习近平总书记经常讲的一句话。
-老区人民的生活质量，习近平一直牵挂于心。脱贫攻坚已经取得了辉煌战果，下一步如何建立造血机制，增强老区人民从脱贫到致富内生动力，是习近平考察中一直思考的问题。
-来到新县田铺乡田铺大塆，考察创客小店；来到光山县槐店乡，考察油茶产业；来到光山县文殊乡东岳村，察看特色产品……不难看出，发展致富产业是习近平尤为关注的事情。
-——发展乡村旅游不要搞大拆大建，要因地制宜、因势利导，把传统村落改造好、保护好。
-——要把农民组织起来，面向市场，推广“公司+农户”模式，建立利益联动机制，让各方共同受益。
-——要坚持走绿色发展的路子，推广新技术，发展深加工，把油茶业做优做大，努力实现经济发展、农民增收、生态良好。
-——要积极发展农村电子商务和快递业务，拓宽农产品销售渠道，增加农民收入。要注意节约环保，杜绝过度包装，避免浪费和污染环境。
-……
-习近平悉心指导，连连支招，背后是探索建立稳定脱贫长效机制的重要课题。习近平表示，脱贫攻坚既要扶智也要扶志，既要输血更要造血，建立造血机制，增强致富内生动力，防止返贫。要发扬自力更生、自强不息的精神，不仅要脱贫，而且要致富，继续在致富路上奔跑，走向更加富裕的美好生活。
-习近平勉励大家，贫困帽子摘了，攻坚精神不能放松。追求美好生活，是永恒的主题，是永远的进行时。
-“把我国制造业和实体经济搞上去”
-制造业是实体经济的基础，实体经济是我国发展的本钱，是构筑未来发展战略优势的重要支撑。振兴实体经济、推动经济高质量发展，是习近平地方考察时经常提到的话题，也是他这次考察的重要内容。
-17日下午，习近平来到郑州煤矿机械集团股份有限公司考察调研，听取了企业开展科技创新、进行海外并购、推动产品转型升级情况介绍，并仔细观看了液压支架操作演示，又一次体现了他对我国制造业和实体经济发展的高度重视。
-习近平强调，要坚定推进产业转型升级，加强自主创新，发展高端制造、智能制造，把我国制造业和实体经济搞上去，推动我国经济由量大转向质强，扎扎实实实现“两个一百年”奋斗目标。
-当前，我国经济已由高速增长阶段转向高质量发展阶段，必须把发展经济的着力点放在实体经济上，加快建设制造强国，加快发展先进制造业，不断增强我国经济创新力和竞争力。每个产业、每个企业都要朝着这个方向坚定往前走。
-18日听取了河南省委和省政府工作汇报后，习近平又进一步强调，要推动经济高质量发展，抓住促进中部地区崛起战略机遇，立足省情实际、扬长避短，把制造业高质量发展作为主攻方向，把创新摆在发展全局的突出位置。
-“让黄河成为造福人民的幸福河”
-黄河是中华民族的母亲河、中华文明的摇篮。习近平对黄河治理问题特别关心。
-党的十八大以来，习近平总书记多次实地考察黄河流域生态保护和发展情况，多次就三江源、祁连山、秦岭等重点区域生态保护建设提出要求。
-就在上个月，习近平总书记来到甘肃兰州，前往黄河治理兰铁泵站项目点，听取甘肃省和兰州市开展黄河治理和保护情况介绍。他指出，黄河、长江都是中华民族的母亲河。保护母亲河是事关中华民族伟大复兴和永续发展的千秋大计。
-17日下午，习近平来到黄河博物馆，了解黄河流域文明发展、水患治理、生态保护等的历史变迁；他来到黄河国家地质公园临河广场，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况。
-18日上午，习近平在河南主持召开黄河流域生态保护和高质量发展座谈会时强调，黄河流域生态保护和高质量发展，同京津冀协同发展、长江经济带发展、粤港澳大湾区建设、长三角一体化发展一样，是重大国家战略。
-“黄河宁，天下平”，如何“让黄河成为造福人民的幸福河”，习近平强调：
-——要坚持山水林田湖草综合治理、系统治理、源头治理，统筹推进各项工作，加强协同配合，推动黄河流域高质量发展。
-——要加强对黄河流域生态保护和高质量发展的领导，发挥我国社会主义制度集中力量干大事的优越性，牢固树立“一盘棋”思想，尊重规律，更加注重保护和治理的系统性、整体性、协同性，抓紧开展顶层设计，加强重大问题研究，着力创新体制机制，推动黄河流域生态保护和高质量发展迈出新的更大步伐。
-——要保持历史耐心和战略定力，以功成不必在我的精神境界和功成必定有我的历史担当，既要谋划长远，又要干在当下，一张蓝图绘到底，一茬接着一茬干，让黄河造福人民。
-这次河南考察，总书记作出的这些重要指示，事关全局，事关未来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新华社</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">在河南考察的三天 习近平总书记关注了哪些问题？ 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/342133390_114731?g=0?code=143908f0f55469105f57777a3356bda8&amp;spm=smpc.home.top-news1.3.15689633806400yqaU7b&amp;_f=index_cpc_0_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原标题：在河南考察的三天 习近平总书记关注了哪些问题？
-【编者按】9月16日至18日，中共中央总书记、国家主席、中央军委主席习近平先后来到河南省信阳、郑州等地，深入革命老区、农村、企业等，就经济社会发展和“不忘初心、牢记使命”主题教育情况进行考察调研。
-这是继2014年后，习近平总书记再赴河南。考察期间，习近平总书记关注了哪些问题？新时代学习工作室带您回顾总书记的精彩发言。
-新华社记者 鞠鹏摄
-谈革命先烈
-我每次到革命老区考察调研，都去瞻仰革命历史纪念场所，就是要告诫全党同志不能忘记红色政权是怎么来的、新中国是怎么来的、今天的幸福生活是怎么来的，就是要宣示中国共产党将始终高举红色的旗帜，坚定走中国特色社会主义道路，把先辈们开创的事业不断推向前进。
-——9月16日，在信阳市新县鄂豫皖苏区首府烈士陵园瞻仰革命烈士纪念堂时的讲话
-革命博物馆、纪念馆、党史馆、烈士陵园等是党和国家红色基因库。要讲好党的故事、革命的故事、根据地的故事、英雄和烈士的故事，加强革命传统教育、爱国主义教育、青少年思想道德教育，把红色基因传承好，确保红色江山永不变色。
-——9月16日，来到鄂豫皖苏区首府革命博物馆了解鄂豫皖苏区革命历史时的讲话
-吃水不忘掘井人。我们绝不能忘记革命先烈，绝不能忘记老区人民，要把革命老区建设得更好，让老区人民过上更好生活。
-——9月16日，在鄂豫皖苏区首府革命博物馆内院会见当地红军后代、革命烈士家属代表时的讲话
-红军后代、革命烈士家属传承革命精神有说服力和感染力，要把先辈们的英雄故事讲给大家听，讲给年青一代听，激励人们坚定不移跟党走，为实现美好生活而奋斗。
-——9月16日，在鄂豫皖苏区首府革命博物馆内院会见当地红军后代、革命烈士家属代表时的讲话
-新华社记者 谢环驰摄
-谈乡村振兴
-搞乡村振兴，不是说都大拆大建，而是要把这些别具风格的传统村落改造好。
-——9月16日，来到新县田铺乡田铺大塆考察调研时的讲话
-依托丰富的红色文化资源和绿色生态资源发展乡村旅游，搞活了农村经济，是振兴乡村的好做法。
-——9月16日，来到新县田铺乡田铺大塆考察调研时的讲话
-要扎实实施乡村振兴战略，积极推进农业供给侧结构性改革，牢牢抓住粮食这个核心竞争力，不断调整优化农业结构，深入推进优质粮食工程，突出抓好耕地保护和地力提升，加快推进高标准农田建设，做好粮食市场和流通的文章，积极稳妥推进土地制度改革，加强同脱贫攻坚战略的有效对接，在乡村振兴中实现农业强省目标。
-——9月18日，听取河南省委和省政府工作汇报时的讲话
-9月16日下午，习近平在信阳市新县田铺乡田铺大塆考察调研。 新华社记者 谢环驰摄
-谈脱贫攻坚
-路子找到了，就要大胆去做。要通过“公司加农户”的方式，朝着市场化、规模化的方向发展，使公司和农民彼此受益。
-——9月17日，来到光山县司马光油茶园察看当地产业脱贫工作成效时的讲话
-党的政策好，还要靠大家去落实。你们要自力更生、自强不息，不仅自己脱贫，而且要争当脱贫致富的带头人。
-——9月17日，来到光山县文殊乡东岳村考察当地脱贫攻坚工作成效和中办在光山县扶贫工作情况时的讲话
-我一直强调扶贫既要扶智，又要扶志，一个是智慧，一个是志气，不光是输血，还要建立造血机制，脱贫后生活还要不断芝麻开花节节高。
-——9月17日，来到光山县文殊乡东岳村考察当地脱贫攻坚工作成效和中办在光山县扶贫工作情况时的讲话
-追求更加幸福的美好生活是永恒的主题，是永远的进行时。
-——9月17日，来到光山县文殊乡东岳村考察当地脱贫攻坚工作成效和中办在光山县扶贫工作情况时的讲话
-9月17日上午，习近平在信阳市光山县文殊乡东岳村文化接待中心，同当地脱贫致富带头人亲切交流，勉励他们带动更多乡亲们致富。 新华社记者 谢环驰摄
-谈制造业发展
-我们现在制造业规模是世界上最大的，但要继续攀登，靠创新驱动来实现转型升级，通过技术创新、产业创新，在产业链上不断由中低端迈向中高端。
-——9月17日，来到郑州煤矿机械集团股份有限公司考察调研时的讲话
-一定要把我国制造业搞上去，把实体经济搞上去，扎扎实实实现“两个一百年”奋斗目标。
-——9月17日，来到郑州煤矿机械集团股份有限公司考察调研时的讲话
-要推动经济高质量发展，抓住促进中部地区崛起战略机遇，立足省情实际、扬长避短，把制造业高质量发展作为主攻方向，把创新摆在发展全局的突出位置，加强重大基础设施建设，坚持以人为核心推进新型城镇化，善于用改革的办法解决经济社会发展中的突出问题，积极融入共建“一带一路”，加快打造内陆开放高地，加快建设现代化经济体系。
-——9月18日，听取河南省委和省政府工作汇报时的讲话
-9月17日下午，习近平来到郑州煤矿机械集团股份有限公司考察调研。新华社记者 鞠鹏摄
-谈环境治理
-新中国成立之初，毛泽东同志就发出了“要把黄河的事情办好”的伟大号召。70年来，党领导人民开创了治黄事业新篇章，创造了黄河岁岁安澜的历史奇迹。
-——9月17日，来到黄河国家地质公园临河广场，沿黄河岸边步行察看周边环境，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况时的讲话
-实践证明，只有在中国共产党领导下，发挥社会主义制度优势，才能真正实现黄河治理从被动到主动的历史性转变，从根本上改变黄河三年两决口的惨痛状况。
-——9月17日，来到黄河国家地质公园临河广场，沿黄河岸边步行察看周边环境，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况时的讲话
-要高度重视生态保护工作，牢固树立绿水青山就是金山银山的理念，从源头上解决生态环境问题，持续推进产业结构和能源结构升级优化，努力打造绿色低碳循环发展的经济体系，坚决打赢蓝天、碧水、净土保卫战，统筹推进山水林田湖草系统治理，把沿黄生态保护好，提升自然生态系统质量和稳定性。
-——9月18日，听取河南省委和省政府工作汇报时的讲话
-9月17日下午，习近平在郑州黄河国家地质公园，眺望黄河郑州段。 新华社记者 谢环驰摄
-谈主题教育
-开展“不忘初心、牢记使命”主题教育，党员、干部要多学党史、新中国史，自觉接受红色传统教育，常学常新，不断感悟，巩固和升华理想信念。
-——9月16日，来到鄂豫皖苏区首府革命博物馆了解鄂豫皖苏区革命历史时的讲话
-要注重分类指导，力戒形式主义、官僚主义，注重减轻基层负担，注重开门抓教育，注重解决群众最急最忧最盼的紧迫问题，切实把党中央关于主题教育的各项要求落到实处。
-——9月18日，听取河南省委和省政府工作汇报时的讲话
-鄂豫皖苏区根据地是我们党的重要建党基地，焦裕禄精神、红旗渠精神、大别山精神等都是我们党的宝贵精神财富。开展主题教育，要让广大党员、干部在接受红色教育中守初心、担使命，把革命先烈为之奋斗、为之牺牲的伟大事业奋力推向前进。
-——9月18日，听取河南省委和省政府工作汇报时的讲话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人民网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">习近平向2019世界制造业大会致贺信 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新华社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/342151142_267106?g=0?code=e5ca60dc707f7f83093fbbb4b92b452d&amp;spm=smpc.home.top-news1.4.15689633806400yqaU7b&amp;_f=index_cpc_2_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原标题：习近平向2019世界制造业大会致贺信
-　　新华社北京9月20日电 2019世界制造业大会20日在安徽省合肥市开幕，国家主席习近平致贺信。
-习近平指出，当前，全球制造业正经历深刻变革，各国需要加强合作、互学互鉴，共同把握新一轮科技和产业革命机遇，增强制造业技术创新能力，推动制造业质量变革、效率变革、动力变革。
-习近平强调，中国高度重视制造业发展，坚持创新驱动发展战略，把推动制造业高质量发展作为构建现代化经济体系的重要一环。中方愿同各方一道，推动制造业新技术蓬勃发展，为促进全球制造业高质量发展、实现共享共赢作出积极贡献。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">习近平视察北京香山革命纪念地 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/340633350_267106?spm=smpc.subject.Slider-1.1.1568964570243b3AgpfK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-9月12日，中共中央总书记、国家主席、中央军委主席习近平视察中共中央北京香山革命纪念地。这是习近平瞻仰双清别墅。 新华社记者 鞠鹏
-9月12日，中共中央总书记、国家主席、中央军委主席习近平视察中共中央北京香山革命纪念地。这是习近平在香山革命纪念馆参观《为新中国奠基》主题展览，并发表重要讲话。 新华社记者 鞠鹏
-9月12日，中共中央总书记、国家主席、中央军委主席习近平视察中共中央北京香山革命纪念地。这是习近平在香山革命纪念馆参观《为新中国奠基》主题展览，并发表重要讲话。 新华社记者 黄敬文
-9月12日，中共中央总书记、国家主席、中央军委主席习近平视察中共中央北京香山革命纪念地。这是习近平在香山革命纪念馆参观《为新中国奠基》主题展览。 新华社记者 黄敬文
-9月12日，中共中央总书记、国家主席、中央军委主席习近平视察中共中央北京香山革命纪念地。这是习近平在香山革命纪念馆参观《为新中国奠基》主题展览。 新华社记者 黄敬文
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（专题） 地址：http://www.sohu.com/subject/316439?code=9ac3c2d783ff4956cc2f9774980cbb52&amp;spm=smpc.home.top-news1.5.15689633806400yqaU7b&amp;_f=index_cpc_0_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.qstheory.cn/dukan/qs/2019-09/16/c_1124994831.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">扎实推动长江经济带高质量发展
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>　长江是中华民族的母亲河，水系庞大，水资源总量约占全国的35%，不仅哺育沿江4亿人民，还通过南水北调惠泽华北广大地区。长江流域山水林田湖草浑然一体，具有强大的涵养水源、繁育生物、释氧固碳、净化环境功能，是我国重要的生态安全屏障，更是子孙后代生生不息、永续发展的重要支撑。习近平总书记多次深入长江沿线考察工作，多次对长江经济带发展作出重要指示批示，亲自谋划、亲自部署、亲自推动长江经济带发展战略，在重庆、武汉先后两次主持召开座谈会并发表重要讲话。推动长江经济带高质量发展，必须深入学习习近平总书记重要讲话精神，全面贯彻党中央决策部署。
-　　一、明确战略定位
-　　推动长江经济带发展，是以习近平同志为核心的党中央作出的重大决策，是关系国家发展全局的重大战略，对实现“两个一百年”奋斗目标、实现中华民族伟大复兴的中国梦具有重要意义。关于长江经济带的战略定位，需要重点明确四个方面。
-　　成为引领中国经济高质量发展的排头兵。长江经济带覆盖我国11省市，横跨东中西三大板块，国土面积虽然只占全国的21.4%，但集聚了42.8%的人口，2018年创造了44.1%的国内生产总值，在我国经济发展中具有重要引擎作用。长江经济带东有长三角城市群，西为中西部广阔腹地，市场需求潜力和发展回旋空间巨大。在当前全球经济增速放缓、不确定性增多，我国经济已由高速增长阶段转向高质量发展阶段的大背景下，推动长江经济带高质量发展，必须充分发挥长江黄金水道独特作用，构建现代化综合交通运输体系，推动沿江产业结构优化升级，培育具有强大竞争力的三大城市群，使之成为引领我国经济高质量发展的排头兵。
-　　成为实施生态环境系统保护修复的创新示范带。长江是我国重要的生态宝库和生物基因宝库，流域内动植物千姿百态，珍稀水生生物十分宝贵，生物多样性居我国七大流域之首。长江也是我国水量最丰富的河流，年均水资源总量9960亿立方米。长江流域森林覆盖率达40%以上，河湖湿地面积约占全国的20%。推动长江经济带高质量发展，必须坚持共抓大保护、不搞大开发，统筹江河湖泊丰富多样的生态要素，构建江湖关系和谐、流域水质优良、生态流量充足、水土保持有效、生物种类多样的生态安全格局，使之成为实施生态环境系统保护修复的创新示范带。
-　　成为培育新动能引领转型发展的创新驱动带。长江经济带科教资源富集，目前，普通高等院校数量占全国的43%，研发经费支出占全国的46.7%，有效发明专利数占全国40%以上。长江沿线集聚了2个综合性国家科学中心、9个国家级自主创新示范区、90个国家级高新区、161个国家重点实验室、667个企业技术中心，占据了全国的“半壁江山”。推动长江经济带高质量发展，必须依托区域人才、智力密集优势，坚定不移推进供给侧结构性改革，坚决淘汰落后过剩产能，大力激发创新创业创造活力，实现由要素驱动、投资驱动向创新驱动的转变，使之成为培育新动能引领转型发展的创新驱动带。
-　　成为创新体制机制推动区域合作的协调发展带。长江经济带上中下游资源、环境、交通、产业基础等发展条件差异较大，中游、上游人均地区生产总值仅分别为下游的60.3%和49.2%，地区间基本公共服务水平差距明显。推动长江经济带高质量发展，必须立足上中下游地区比较优势，创新区域协调发展机制，统筹人口分布、经济布局与资源环境承载能力，打破行政分割和市场壁垒，促进要素跨区域自由流动，提高要素配置效率，激发内生发展活力，使之成为创新体制机制推动区域合作的协调发展带。
-　　二、把握根本遵循
-　　习近平总书记站在历史和全局的高度，从中华民族长远利益出发，系统谋划了长江经济带发展的全局性、根本性、战略性重大举措，为推动长江经济带发展掌舵领航、把脉定向，立下规矩、划定红线，是新时代深入推动长江经济带高质量发展的理论指导和根本遵循。对此，要重点把握三个关键点。
-　　“生态优先、绿色发展”这一理念，在推动长江经济带高质量发展中居于统领地位。2007年爆发的太湖蓝藻污染事件，曾使太湖明珠蒙垢。太湖水危机后，流域地区在应急防控、综合整治等方面做了大量工作，太湖至今已连续十多年安全度夏。图为太湖美景。 国家发展改革委供图
-　　坚持生态优先、绿色发展的理念。习近平总书记强调，推动长江经济带发展必须从中华民族长远利益考虑，牢固树立和贯彻新发展理念，走生态优先、绿色发展之路，使绿水青山产生巨大生态效益、经济效益、社会效益，使母亲河永葆生机活力。“生态优先、绿色发展”这一理念，在推动长江经济带高质量发展中居于统领地位。前几年，长江流域废污水年排放量已突破300亿吨，长江水体恶化已成为流域生态安全和经济社会可持续发展的重要瓶颈，到了非下大决心整治不可的地步。如果继续遭到破坏，不仅会断了子孙后路，而且在我们这一代人就会有“现世报”。因此，推动长江经济带发展必须坚持生态优先、绿色发展理念。
-　　坚持共抓大保护、不搞大开发的战略导向。习近平总书记明确指出，以共抓大保护、不搞大开发为导向推动长江经济带发展。这是在新的历史起点上推动长江经济带发展的总体要求和基本遵循。“共抓大保护”，现阶段的关键是把握好“共抓”，增强系统思维能力，发挥好协同作用。长江经济带上下游、左右岸、干支流、江湖库是一个有机整体，必须将整个流域作为完整单元来保护修复，以体现科学性、有效性。无论是水运、发电、防洪、灌溉，还是港口、岸线、产业发展，都要服从服务于长江生态环境保护修复。“不搞大开发”，不是不要开发，而是要刹住无序开发、破坏式开发和超范围开发，开发必须在资源环境的承载能力之内，必须以保护修复长江生态环境为前提，走生态优先、绿色发展之路，实现科学、绿色、可持续的发展，在全国率先实现高质量发展。如果仍然沿袭老路，经济开发建设的规模强度超出了资源环境的承载能力，大开发就会演变为大破坏。
-　　正确把握“五个关系”。习近平总书记强调，新形势下推动长江经济带发展，关键是要正确把握“五个关系”。我们必须深刻领会，真正做到融会贯通、学好用好，常学常新、常用常新。
-　　一是正确把握整体推进和重点突破的关系，全面做好长江生态环境保护修复工作。这一关系讲的是推动长江经济带发展的基本前提，就是要把保护修复长江生态环境摆在压倒性位置，从生态系统的整体性和长江流域的系统性着眼，抓住主要矛盾和矛盾的主要方面，追根溯源、分类施策、系统整治，逐步解决长江经济带环境透支问题。
-　　二是正确把握生态环境保护和经济发展的关系，探索协同推进生态优先和绿色发展新路子。这一关系讲的是推动长江经济带发展的关键要义，就是要坚持绿水青山就是金山银山，在保护生态的前提下谋发展，实现经济社会发展与人口、资源、环境相协调。
-　　三是正确把握总体谋划和久久为功的关系，坚定不移将一张蓝图干到底。这一关系讲的是推动长江经济带发展的方法论，就是要胸怀百年大计、千秋大业，绘好蓝图、科学规划，以钉钉子的精神，一锤一锤钉下去，积小胜为大胜。
-　　四是正确把握破除旧动能和培育新动能的关系，推动长江经济带加快建设现代化经济体系。这一关系讲的是推动长江经济带发展的动力问题，就是要以壮士断腕、刮骨疗伤的决心，积极稳妥腾退化解传统落后产能，破除无效供给，大力实施创新驱动发展战略，培育发展先进产能，增加有效供给，实现腾笼换鸟、凤凰涅槃。
-　　五是正确把握自身发展和协同发展的关系，努力将长江经济带打造成为有机融合的高效经济体。这一关系讲的是推动长江经济带发展的联动问题，就是要有“一盘棋”的思想，把自身发展放到协同发展的大局之中，找准定位、发挥比较优势，协调联动、缩小发展差距，推动长江上中下游地区协调发展和沿江地区高质量发展。
-　　三、客观认识成绩
-　　在推动长江经济带发展第一次和第二次座谈会上，习近平总书记都发表了重要讲话，有关部门和沿江11省市深入学习贯彻习近平总书记重要讲话精神，贯彻落实党中央和国务院决策部署，在提高思想认识、强化顶层设计、改善生态环境、促进转型发展等方面取得了阶段性积极成效。
-　　顶层中层设计基本完成。形成了“1+N”的长江经济带发展规划体系。“1”是指《长江经济带发展规划纲要》，这是推动长江经济带发展的纲领性文件，为实施长江经济带发展战略提供了基本遵循。“N”是指有关方面围绕落实规划纲要，制定的10个专项规划、11个实施方案以及“4+1”指导意见等一系列支持政策。
-　　共抓大保护格局基本确立。三年多来，我们以持续改善长江水质为中心，统筹推进水污染治理、水生态修复、水资源保护“三水共治”，扎实推进城镇污水垃圾处理、化工污染治理、农业面源污染治理、船舶污染治理以及尾矿库污染治理“4+1”工程，组织开展系列专项整治行动，全面完成1361座非法码头整治，2018年长江经济带断面水质优良比例达到79.3%。
-　　综合立体交通走廊建设加快推进。着力推动航道区段标准、船舶标准、港口码头管理、通关管理“四个统一”建设，长江南京以下12.5米深水航道整治工程已全线贯通，长江通关一体化改革成效显著。2018年，长江干线年货物通过量达26.9亿吨，比上年增长7.6%，位居世界内河首位。同时，多式联运加快发展，综合交通网络建设持续加强。
-　　绿色发展的引领支撑作用不断增强。上海、安徽、四川、武汉全面创新改革试验扎实推进，以城市群为主体、大中小城市和小城镇协调发展的城镇格局加快构建。对外开放水平不断提升，上海、浙江、湖北、重庆、四川、江苏自贸试验区改革试点持续推进，长江经济带发展与“一带一路”建设融合共进，2018年，长江经济带各省市开行中欧班列4138列，占全国开行总列数的65%。
-　　体制机制逐步建立。划定沿江11省市生态保护红线，全面推行河长制湖长制，进一步理顺中央与地方、部门与部门间的管理职责界限，印发《长江经济带发展负面清单指南（试行）》，建立健全国土空间管控机制，初步实现长江国控断面水环境质量统一监测、统一发布，长江经济带“1+3”省际协商合作机制全面建立，长江保护法立法进程加快推进。
-　　坚持互联互通，加快构筑综合立体交通走廊是推动长江经济带发展的重要方面。上海洋山深水港四期码头是全球最大的自动化集装箱码头，得益于洋山深水港的规划建设和多年发展，上海国际航运中心龙头带动作用进一步发挥。图为上海洋山深水港四期自动化码头。 国家发展改革委供图
-　　总的来看，经过不懈努力，近年来推动长江经济带发展各项工作全面推进，在生态环境进一步改善的同时，经济发展质量和效益不断提升。2018年，长江经济带地区生产总值40.3万亿元，比上年增长7.4%，占全国比重为44.1%，比2015年提高1.8个百分点。
-　　四、直面困难挑战
-　　在充分肯定取得阶段性成效的同时，也要清醒认识推动长江经济带发展面临的困难挑战和需要解决的问题隐患。
-　　长江流域山水林田湖草浑然一体，是我国重要的生态安全屏障。贵州省威宁县草海素有“高原明珠”之称，是贵州省最大的天然淡水湖。从上世纪50年代起，围湖造田等人类活动给草海带来了毁灭性的破坏。近年来，贵州省全力推进草海综合整治，使草海重新恢复“明珠”气质。图为草海一湖清水。 国家发展改革委供图
-　　从工作基础看，目前长江生态环境面临的形势仍然十分严峻。主要表现在三个方面。一是生态环境保护任务仍然艰巨。长江经济带污染物排放基数大，2017年废水排放量占全国的43%，废水中的化学需氧量、氨氮、总氮、总磷排放量都接近全国的一半。岸线管理利用粗放，环保设施跟不上，矿产开采遗留问题多，有的地方煤矿、磷渣废水通过支流进入长江，有的直接渗入地下水，治理难度和费用都很高。二是流域环境风险隐患较为突出。长江危险化学品码头和船舶数量多、分布广，仅重庆至安徽段危险化学品码头就接近300个。长江干线港口危险化学品年吞吐量已达1.7亿吨，运输量仍以每年近10%的速度增长，危险化学品发生泄漏的风险仍然较大。三是流域生态功能退化依然严重。长江“双肾”洞庭湖、鄱阳湖频频干旱见底，接近30%的重要湖库仍处于富营养化状态，长江生物完整性指数较差，中华鲟、胭脂鱼、“四大家鱼”（青鱼、草鱼、鲢鱼、鳙鱼）等鱼卵和鱼苗大幅减少，白鳍豚已功能性消失，江豚面临极危态势，野生扬子鳄处于极度濒危状态。
-　　从工作观念看，共抓大保护的压倒性位置仍然很不稳固。习近平总书记讲“长江病了”，这些“病”从根本上讲，还是一些基层干部政治站位不高，对习近平生态文明思想学习领会不透彻，贯彻落实不坚决。有的干部没有从政治高度充分认识共抓大保护的极端重要性，仍未真正树立绿水青山就是金山银山的理念，思想上麻痹大意、行动上被动消极，对于党中央提出的规矩红线缺少敬畏之心。有的干部在工作中没有真正坚持新发展理念，仍然受“先污染后治理”、“先破坏后修复”的旧观念影响，认为在追赶发展阶段“环境代价还是得付”，与共抓大保护背道而驰。还有的干部没有真正树立正确的政绩观，简单地把政绩与经济指标画等号，为了快出政绩，搞破坏式开发、污染性增长和黑色GDP，不顾及未来发展和子孙后代福祉。
-　　从工作思路看，共抓大保护的系统性仍然很脆弱。主要表现在“三个不够明晰”。一是全流域生态环境底数不够明晰。目前，对各类生态隐患和环境风险梳理掌握得不全面，相关指标体系及基础数据库尚待建立，不仅在全局和整体层面，而且在沿江11个省市各自省域内都尚未拿出系统性解决的策略方案。二是共抓大保护的突破口和抓手不够明晰。总的来看，目前的长江生态环境保护修复工作，还没有从长江流域的完整性和生态的整体性出发进行系统布局。面对长江经济带污染排放重、生态损害大、环境风险高的态势，还没有找到有效破解的抓手。三是推动高质量发展的路径不够明晰。一些地方对于推动供给侧结构性改革、建设现代化经济体系的路径还不明，方法还不多，还在比拼要素投入、搞政策竞争。
-　　从工作机制看，协调联动发展的力度还不强。既有全流域统筹不力的问题，也有各区域间合作不够的矛盾。从全流域来看，条块分割，缺乏高层次协调机制。特别是省际沟通协商成本较高，跨部门、跨区域联动协调不够，导致沿江省市在水资源开发利用和生态补偿等方面矛盾依然突出。比如，水利、环保的监测站点多有重合，容易造成数据来源多头、相关监测口径不一致的问题。从流域内各区域来看，合作虚多实少，缺乏硬约束。当前“九龙治水”和“划江而治”的管理困境，导致区域环境污染联防联治、交通互联互通、生产力布局和一体化市场建设等方面的合作口号多、落实少。特别是环境污染联防联治方面，还存在推诿扯皮现象。
-　　从工作保障看，各方面主观能动性有待提高。主要表现在三个方面。一是资金使用效率不高。各个行业部门项目资金难以统筹整合，资金使用整体效率有待进一步提升。各类金融的支持力度也有待加强。二是人才队伍配备不足。沿江很多地方还没有充实工作专班。一些地方环保专业人才缺乏，难以满足生态环境日常监管需要。目前沿江有关省市在入河排污口整治、岸线清理整治、生态环境问题整改过程中，都不同程度面临技术人才短缺问题。三是法律法规保障不力。与共抓大保护的要求相比，长江经济带法治建设的引领保障作用不足。比如，按照《中华人民共和国自然保护区条例》、《中华人民共和国水生动植物自然保护区管理办法》等规定，任何人禁止进入核心区，缓冲区只准从事科研活动，但由于长江干流属于开放性水域，很难封闭管理，导致相关规定难以执行。
-　　五、狠抓贯彻落实
-　　推动长江经济带高质量发展，必须坚持生态优先、绿色发展，勇于担当、主动作为，坚决打好长江保护修复攻坚战，努力做到“五个坚持”。
-　　四川天府新区是“一带一路”建设和长江经济带发展的重要节点。近年来，天府新区以成都科学城为主要承载地，规划布局新经济和人工智能产业园等6大产业社区，大力发展以数字经济为核心的新经济。图为天府新区成都科学城。 国家发展改革委供图
-　　坚持问题导向，大力推进生态环境保护修复。在我国经济由高速增长阶段转向高质量发展阶段过程中，污染防治和环境治理是必须跨越的一道重要关口。应当咬紧牙关，爬过这个坡，迈过这道坎。要保持加强生态环境保护建设的定力，不动摇、不松劲、不开口子。一方面，狠抓突出问题整改，全面排查生态环境问题及风险隐患，采取有力措施，逐项开展整改。另一方面，强化治本之策，大力推进生态环境污染治理“4+1”工程。
-　　坚持互联互通，加快构筑综合立体交通走廊。加快沿江高铁等一批综合交通走廊骨干项目规划建设，积极发展多式联运，提高综合交通网络化、智能化、现代化水平。重点任务包括：提升黄金水道功能，稳步推动航道区段标准、船舶标准、港口码头管理、通关管理“四个统一”建设；完善综合运输网络，加快沿江铁路、省际待贯通高速公路、支线机场等重大基础设施项目建设；加快发展铁水、公水、空铁联运，着力解决各种运输方式之间的衔接问题，优化与中欧班列、水水中转等运输模式的高效衔接。
-　　坚持创新引领，推动经济加快转型升级。大力实施创新驱动发展战略，加快推进产业转型升级，推动绿色发展，深化对外开放。重点需要做好：提高自主创新能力，加快上海具有全球影响力科技创新中心和张江、合肥综合性国家科学中心建设等；推动产业转型绿色发展，优化沿江产业特别是重化工产业布局，打造世界级先进制造业集群；推进新型城镇化，推动沿江城市群和城市群内部各城镇错位发展；实施全方位对外开放，提高自由贸易试验区建设质量，加强与“一带一路”建设的融合。
-　　坚持深化改革，加快构建共抓大保护的体制机制。以建立生态环境保护硬约束机制为重点，加强规划管控，强化监测预警，深化省际协商合作，加快长江保护立法，推进生态环境协同治理，夯实共抓大保护的体制基础。重点任务包括：建立规划综合管控机制和负面清单管理制度；建立健全生态补偿机制，激发沿江生态保护动力；完善省际协商合作机制；完善长江环境污染联防联控机制和预警应急体系；强化水环境质量监测预警机制；加快长江保护法立法进程，实现保护长江生态环境有法可依。
-　　坚持统筹协调，推进各项工作落实到位。认真落实“中央统筹、省负总责、市县抓落实”的管理体制，加强统筹协调，压实主体责任，形成共抓大保护合力。推动长江经济带发展领导小组办公室要进一步发挥好统筹协调、督促检查、调研评估等职责作用，强化各有关方面的协同联动。有关部门要按照职责分工，协同配合、主动作为，加强对地方的指导。沿江省市要切实履行主体责任，强化对市县的指导督导，确保各项工作落实到位。要在加大投资力度、加强宣传培训、严肃纪律问责等方面重点着力，切实推动解决重点难点问题，抓好各项工作落实到位。
-　　作者：全国政协副主席、推动长江经济带发展领导小组办公室主任、国家发展和改革委员会主任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何立峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">同心共筑中国梦 共创美好新时代 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/342091782_157267?code=337a0d16e8d90b77ee92e73870fec47f&amp;spm=smpc.home.top-news1.7.15689633806400yqaU7b&amp;_f=index_cpc_3_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人民日报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原标题：同心共筑中国梦 共创美好新时代
-　　70年砥砺奋进，70年风雨兼程。
-1949年9月，中国人民政治协商会议第一届全体会议召开，标志着100多年来中国人民争取民族独立和人民解放运动取得了历史性的伟大胜利，标志着爱国统一战线和全国人民大团结在组织上完全形成，标志着中国共产党的多党合作和政治协商制度正式确立。
-70年来，在中国共产党领导下，人民政协积极投身建立新中国、建设新中国、探索改革路、实现中国梦的伟大实践，走过了辉煌的历程，发挥了重要作用。
-坚信人民选择、历史选择，旗帜鲜明维护党的领导
-中国共产党的领导，是历史的选择，人民的选择！
-2014年9月21日，在庆祝中国人民政治协商会议成立65周年大会上，习近平总书记强调指出：“做好人民政协工作，必须坚持中国共产党的领导。”
-70年来，人民政协事业同共和国事业一道前行，显示出勃勃生机与活力。
-1949年9月21日至30日，中国人民政治协商会议第一届全体会议在北平召开。毛泽东主席致开幕词，他豪迈地说，我们的工作将写在人类的历史上，它将表明：占人类总数四分之一的中国人从此站立起来了。
-人民政协最初的组织形式只有全体会议、全国委员会和常务委员会。在毛泽东和历代领导人的领导和指导下，在人民政协组织和政协委员努力下，很快发展为政治法律、财政经济、文化教育、外交、国防、民族事务、华侨事务、宗教事务等8个工作组，如今则扩展成10个专门委员会，包括提案、经济、农业和农村、人口资源环境、教科卫体、社会和法制、民族和宗教、港澳台侨、外事、文化文史和学习等委员会。
-70年间，人民政协在维护党的领导上，从来不含糊、不动摇、不犹豫！
-党的十八大以来，以习近平同志为核心的党中央加强对人民政协工作的全面领导，作出一系列重要部署。各级政协党组切实落实党对政协组织实施领导的制度规定，确保政协始终在党的领导下主动负责、协调一致地开展工作。
-2019年3月3日，全国政协主席汪洋在向全国政协十三届二次会议作常委会工作报告时，专门介绍了全国政协党组学习贯彻中共中央办公厅印发《关于加强新时代人民政协党的建设工作的若干意见》的做法，强调政协党的建设关系政协工作的方向和水平，布置了建立党员委员参加双重组织生活制度等8项重点任务，成立全国政协党的建设工作领导小组，狠抓工作落实。
-全面加强人民政协党的建设，已经成为新时代人民政协的新任务：学习党的创新理论，遵循和践行习近平新时代中国特色社会主义思想；以党的政治建设为统领，全面加强政协各项工作，以党建高质量确保履职尽责的高质量；切实发挥政协党组“把方向、管大局、保落实”的作用，压紧压实党建工作责任；修订完善全国政协党组和机关党组议事规则、分党组工作规则等，构建起政协党组、机关党组与专委会分党组、机关党委、党支部层层抓落实的党建工作格局。
-牢记人民期待、神圣初心，坚定不移以人民为中心
-人民政协与共和国一起成长，人民政协与全国各族人民共同奋斗。
-70年来，人民政协始终铭记着全心全意为人民服务的宗旨，始终坚持人民政协性质地位，坚定不移“以人民为中心”。
-人民不会忘记，从1949年9月到1954年9月，人民政协的全体会议代行全国人民代表大会职权，完成了建立中华人民共和国的历史使命，决定了新中国的各项重大事务，选出了中华人民共和国中央人民政府委员会。
-人民不会忘记，人民政协在70年历程中为履行好职能，组织参加政协的各党派团体和各族各界人士做出的巨大努力，取得的丰硕成果。
-2014年12月31日，在全国政协举行的新年茶话会上，习近平总书记强调，问题是时代的声音，人心是最大的政治。推进党和国家各项工作，必须坚持问题导向，倾听人民呼声。
-郑重的嘱托、殷切的期望，令政协委员为之动容。
-提案，是政协委员履行职责的重要形式。“把人民的呼声带到会上”，是各级政协委员的共同职责和普遍愿望。
-2018年3月，全国政协委员刘屹在十三届一次会议上带来了“奖惩并举、加大力度监管和治理汽车尾气排放”的提案。过去10年，刘屹一直在进行汽车尾气减排方面的研究，“我相信经过不懈努力，一定能打赢蓝天保卫战。”如今，这一提案已经化为具体政策，融入“绿水青山也是金山银山”的伟大实践。
-“人民政协提案承载着人民群众的愿望和呼声，回应人民的热切期待，不断解决好人民最关心最直接最期待的问题，是每一个政协委员努力实现人民民主的神圣追求。”十一届全国政协常委、提案委员会主任李铁林说。
-这些年，政协委员们聚焦优先发展教育事业，就解决中小学生课外负担重问题、高校“双一流”建设、民办教育发展等积极调研、建言出力，推动办好人民满意的教育；紧扣就业、社会保障等涉及群众切身利益的实际问题提出建议，就中长期人口变动与经济社会发展、强化国家海洋救助保障、健全志愿服务管理体制等调研议政；围绕实施健康中国战略，就完善公立医院运行新机制、加强基层医疗卫生服务和全科医生队伍建设、完善养老服务体系、推动全民健身等议题深入协商，促进完善国民健康政策；关注法治建设，就未成年人网络保护条例、退役军人保障法、社会组织登记管理条例的制定修订和司法责任制综合配套改革提出意见；着眼社会主义文化强国建设，就弘扬劳模精神和工匠精神、红色资源保护和利用、文化创意产业发展、历史文化名城名镇保护、大遗址保护和利用、大运河文化带建设、书法教育、戏曲传承发展等进行调研……
-人民的期待，一直都是人民政协政治协商、民主监督、参政议政的风向标。
-双周协商，是近年来政协工作的一个高频词汇，更是一个受到各方关注、体现协商民主的重要实践。
-2013年10月22日，全国政协“双周协商座谈会”召开，赋予了始于1950年、终于“文化大革命”的原“双周座谈会”协商民主的新内涵，虽只有“协商”两字之差，但意义重大。
-至2019年8月30日，十二届全国政协召开了76次双周协商座谈会，十三届全国政协已召开27次双周协商座谈会，次次事关国计民生的重大事项。这些议题，全部源于人民大众的关注热点，几乎覆盖人民群众生产生活的各个领域。
-担当大局重任、时代使命，凝心聚力走出民主新路
-人民政协是具有中国特色的制度安排。
-在人民政协中，有中国共产党，有8个民主党派和无党派人士，有共青团、工会、妇联、青联、工商联、科协、台联、侨联等8个主要群团组织，有56个民族和五大宗教团体的代表人物，有香港特别行政区同胞、澳门特别行政区同胞、台湾同胞和归国侨胞的代表，以及其他各个界别的代表人士。
-新中国成立后，第一届人民政协就喊出了“团结、建设、进步”的响亮口号。70年来，大团结、大联合，始终是各个时期人民政协担当大局重任、履行时代使命、迈出新时代人民民主新步伐的庄严责任。
-组织上的广泛代表性和政治上的巨大包容性，使得“大团结、大统一、囊括一切代表人物”成为人民政协的典型特征，也使得现代中国的人民民主具有世界瞩目的显著优势。
-70年来，人民政协本着“履不必同，期于适足；治不必同，期于利民”的精神，协调、凝聚、团结全国各界参与和支持中国特色社会主义伟大建设，开创新时代民主政治的精彩篇章。
-在大团结大联合的追求中，各党派参加政协工作共同性事务的情况交流机制建立起来了，政协专委会同民主党派中央共同承办协商议政活动，开展联合调研实现经常化。
-在大团结大联合的立场上，政协系统加强同党外知识分子、非公有制经济人士、新的社会阶层人士的沟通联络，及时反映意见诉求，在汇聚人民伟力上迈出新的步伐。
-在大团结大联合的征程里，全国政协新开展少数民族界和宗教界委员专题学习考察、界别协商活动，召开界别反映社情民意信息座谈会，围绕加强各民族交往交流交融、国家通用语言文字普及、边疆群众生产生活、民族地区中小学寄宿制学校建设、坚持我国宗教的中国化方向、藏传佛教人才培养等议政建言、凝聚共识，为各族各界大团结注入强大动力。
-以大团结大联合为愿景，全国政协及时组织港澳委员赴内地考察，就推进粤港澳大湾区建设调研议政，组织港澳青年社团代表赴内地体验交流；加强与台湾岛内有关党派团体、人士联系，坚定不移反对“台独”；邀请海外侨胞代表列席政协全体会议，围绕发挥海外侨胞在维护国家海外利益中的作用等调研建言。
-70年栉风沐雨，70年共创伟业。我们相信，人民政协事业创造了辉煌的过去，也必将焕发出更大的生机与活力，创造出无愧于历史、无愧于时代的新业绩。
-作者：冯春梅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1312,81 +958,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">《我们走在大路上》 第七集 艰辛探索
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tv.sohu.com/v/MjAxOTA5MjAvbjYwMDc2MjkzMi5zaHRtbA==.html?code=9ac3c2d783ff4956cc2f9774980cbb52&amp;spm=smpc.home.top-news1.10.15689633806400yqaU7b&amp;_f=index_cpc_5_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜狐视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tv.sohu.com/v/MjAxOTA5MjAvbjYwMDc2MjkzNi5zaHRtbA==.html?code=9ac3c2d783ff4956cc2f9774980cbb52&amp;spm=smpc.home.top-news1.11.15689633806400yqaU7b&amp;_f=index_cpc_0_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">《我们走在大路上》 第八集 伟大转折
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">《我们走在大路上》 第八集 伟大转折
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">铸就中华文化新辉煌——新中国成立70周年文化建设成就述评 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/341979238_267106?g=0?code=802b6a5e05c1e2a41368f0cef7531524&amp;spm=smpc.home.top-news1.12.15689633806400yqaU7b&amp;_f=index_cpc_6_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原标题：铸就中华文化新辉煌——新中国成立70周年文化建设成就述评
-　　新华社北京9月19日电 题：铸就中华文化新辉煌——新中国成立70周年文化建设成就述评
-新华社记者周玮
-文化兴国运兴，文化强民族强。没有高度的文化自信，没有文化的繁荣兴盛，就没有中华民族伟大复兴。
-中华文化经过历史长河的洗练、峥嵘岁月的磨砺、伟大实践的锻造，凝聚亿万人民为新中国发展不懈奋斗。
-进入新时代，以习近平同志为核心的党中央带领全党全国各族人民，更加自信地行进在中国特色社会主义文化发展之路上，为中华民族伟大复兴积蕴更基本、更深沉、更持久的力量。
-坚持以人民为中心，不断满足人民群众精神文化生活新期待
-黄河之滨、草原戈壁，城市社区、乡镇广场，田间地头、农家小院……在内蒙古的广袤土地上，“乌兰牧骑+”综合服务小分队开展着丰富多彩的惠民服务，助力乡村振兴、脱贫攻坚。
-人民在哪里，哪里就是中心；生活在哪里，哪里就是舞台——60多年来，一代代乌兰牧骑队员迎风雪、冒寒暑，在戈壁草原上辗转跋涉，传递党的声音和关怀，为广大农牧民送去欢乐，成为全国文艺战线的一面旗帜。
-为人民大众服务，始终是中国共产党人文化发展的价值取向。
-广大文艺工作者在习近平新时代中国特色社会主义思想指引下，坚定文化自信，坚持以人民为中心的创作理念，努力记录新时代、书写新时代、讴歌新时代。影视剧《红海行动》《鸡毛飞上天》，专题片《将改革进行到底》《永远在路上》，戏剧《挑山女人》《谷文昌》，图书《抗日战争》《云中记》等，深刻反映新中国成立70年来取得的辉煌成就，深切感应时代主题和人民心声。
-70年来，我们党坚持文化发展为了人民，文化发展成果由人民共享，不断满足人民多层次、多样化、多方面的精神文化需求。
-由新中国成立初期的一穷二白迈入大繁荣大发展的新时代，群众文化生活日益丰富多彩，文化软实力大幅提升——1949年，全国公共图书馆仅有55个，文化馆站896个，博物馆21个；2018年底，全国共有公共图书馆3176个，文化馆站44464个，博物馆4918个。目前，中国电视剧和图书年产量稳居世界第一，电影产量高居世界第二；2018年，全国电影总票房达到609.76亿元。
-进入新时代，随着人民美好生活需要日益广泛，人民对文化产品的质量、品位、风格等的要求越来越高。文化和旅游部部长雒树刚说，要坚持守正创新，着眼满足人民群众精神文化生活新期待，大力推动文化领域供给侧结构性改革，以高质量文化供给增强人民群众的文化获得感、幸福感。
-高扬社会主义核心价值观旗帜，为实现民族伟大复兴凝心聚力
-故宫，这座近600岁的皇家宫殿，而今正以层出不穷的文化创意创造着新价值。
-2019年春节，从“紫禁城里过大年”到赏灯“上元之夜”，以故宫为代表的文博场所“花样百出”，让本是参观“淡季”的寒冬变成“旺季”。
-“博物馆里过大年”渐成新年俗，是收藏在禁宫里的文物、陈列在广阔大地上的遗产、书写在古籍里的文字“活”起来的鲜活案例，也是中华优秀传统文化滋养社会主义核心价值观的生动写照。
-2018年10月至12月，戏曲百戏盛典在昆山举办，近百万人通过网络直播观看，新浪微博阅读量超过1.1亿；用传统文化滋养文艺创作、弘扬社会主义核心价值观，话剧《手艺》、纪录片《秘境神草》等一大批底蕴深厚、涵育人心的优秀文艺作品涌现……近年来，优秀传统文化更好更多地融入生产生活各方面，人人传承发展中华优秀传统文化的生动局面正在形成。
-刚过去的2019年暑期，红色旅游成为关键词之一，且越来越多年轻人参与其中。
-“老一辈无产阶级革命家为了新中国付出了毕生心血，看着他们走过的路、种过的地、住过的房间，让我无比真实地感受到了他们曾经的生活。”一位参观完延安革命纪念馆的刚毕业的大学生说。
-嘉兴、井冈山、遵义、西柏坡……当人们来到革命圣地，亲身体会红船精神、井冈山精神、长征精神、西柏坡精神等为代表的革命文化，唤醒沉淀在灵魂深处的红色基因，增强做中国人的骨气和底气。
-2018年8月，习近平总书记给中央美术学院8位老教授回信，就做好美育工作，弘扬中华美育精神提出殷切期望。
-总书记的嘱托，为这所百年学府的师生增添了与时代同行、做新时代美育实践者的信心与动能。
-若尔盖县，地处青藏高原东北边缘。多年前，这里曾见证当地藏族、羌族青年与红军血与火的情谊。今天，这里成为中央美院教师种下艺术种子、启迪美好心灵的教学基地。老师们为这里从未上过美术课的藏区少年开设美术课。《若尔盖草原的战马》《我永远爱红军叔叔》……一幅幅画作展现出孩子们令人惊叹的想象力和创造力。
-“持大爱之心，研大美之艺，我们使命在肩。”中央美院院长范迪安说。
-坚定文化自信，铸就中华文化新辉煌
-2019年8月19日，习近平总书记甘肃考察首站来到敦煌莫高窟，探寻古丝绸之路的奥秘。
-习近平总书记指出，敦煌文化展示了中华民族的文化自信，只有充满自信的文明才能在保持自己特色的同时包容、借鉴、吸收各种文明的优秀成果。要加强对优秀传统文化传承弘扬的支持和扶持，保护好我们的国粹。
-历经千年岁月沧桑的敦煌莫高窟，见证着多元文化的交汇融合和东西方文明的交流互鉴。
-敦煌研究院名誉院长樊锦诗说，新时代，讲好敦煌故事、传播中国声音、坚定文化自信，我们责无旁贷。
-作为实证中华5000多年文明史的圣地，2019年7月6日，良渚古城遗址成功列入世界遗产名录，迄今，中国已拥有55项世界遗产，40个项目列入联合国教科文组织非遗名录（名册），居世界前列；截至2018年12月，我国已设立海外中国文化中心37个，积极配合国家战略，推动文明交流互鉴……彰显创造性转化创新性发展、体现人类共同价值追求的中国故事引来八方喝彩。
-新时代，中华文化的精华滋养着当代中国人的精神世界，中华文化的丰富智慧提振着当代中国人的精神力量。
-在四川凉山彝族自治州、甘肃临夏回族自治州、西藏拉萨尼木县、广西崇左龙州县、贵州黔东南雷山县等地，传承千年的文化遗产正为脱贫致富带来新生机。“非遗+扶贫”，让很多拥有刺绣技艺的外出打工妈妈实现了“守着娃，绣着花，养活自己又养家”。在奔小康的路上，文化自信留住了乡愁。
-近年来，中国图书在全世界刮起“中国风”，中国主题图书磁石般吸引着海外读者。其中最引人瞩目的莫过于《习近平谈治国理政》，多文种版自2014年10月在法兰克福国际书展首发以来，受到国际社会广泛关注，持续热销，被认为是了解当代中国发展的“密匙”。
-自信人生二百年，会当水击三千里。当代中国共产党人和中国人民肩负新的文化使命，在实践创造中进行文化创造，在历史进步中实现文化进步，不断铸就中华文化新辉煌，为实现中华民族伟大复兴凝聚磅礴精神力量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">抵制低俗不良信息群防群治发布会在天津举行 
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1406,40 +977,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（专题） 地址：http://www.qstheory.cn/zt2019/llxjj/index.htm?code=9ac3c2d783ff4956cc2f9774980cbb52&amp;_f=index_cpc_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（专题） 地址:http://www.sohu.com/subject/317795?code=9ac3c2d783ff4956cc2f9774980cbb52&amp;spm=smpc.home.top-news1.13.15689633806400yqaU7b&amp;_f=index_cpc_0_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【新中国从这里走来】探访革命圣地 媒体团重温历史感悟延安精神 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sohu.com/a/341641916_115239?scm=0.0.0.0&amp;spm=smpc.subject.column-1.1.1568965312436TElVONx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国际在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国际在线陕西报道（柳洪华）：9月16日，由中央网信办网络新闻信息传播局、江西网信办、贵州网信办、陕西网信办、河北网信办、北京网信办主办，中央广播电视总台央视网承办的“新中国从这里走来”网络主题活动来到陕西延安，来自人民网、新华网、中国网、国际在线、中国日报网、央视网、中国青年网、中国经济网、中国台湾网、中国西藏网、光明网、央广网、中国新闻网、环球网等中央新闻网站及地方媒体组成的媒体团，开启了活动北线的采访之行。
-媒体团与红秀《延安 延安》主要演员合影 摄影 董淑云
-9月的延安，天高云淡、秋意渐浓。当天（16日）傍晚，初到革命圣地的媒体团，观看了大型红色文化主题秀《延安 延安》，从重温革命历史开始，打开了延安的历史长卷。
-红秀《延安 延安》以一个从上海来到延安的女大学生白雁鸣的视角，讲述了抗日战争时期爱国志士、救亡青年、革命军人奔赴延安，展开生产、生活、学习、战斗的故事。演出中，一幕幕特技表演，展示着当初红军战士所经历的艰难岁月，两万五千里的漫漫征程浮现在媒体团的眼前，现场不时响起掌声。
-红秀《延安 延安》演出场景 摄影 柳洪华
-除了对革命历史的再现，演出中穿插的劳作场景、陕北民歌以及演员们羊皮袄、白手帕的穿戴，种种延安元素瞬间拉近了媒体团与延安的距离。
-在战争年代，延安这片黄土地孕育了延安精神。在新时代，红色文化不仅是延安的精神标识，还是延安文旅产业的独特资源，以《延安 延安》《延安保育院》等为代表的舞台演艺已有十多部。文旅产业的发展，让延安“走出去”的路子更宽了，也让大家了解延安的“窗口”更多了。
-红秀《延安 延安》演出场景 摄影 柳洪华
-此次活动的北线采访之行以延安为首站。延安的采访从观看红秀《延安 延安》接受红色主题教育开始，真正契合了“新中国从这里走来”这一主题，也为后续的采访行程定下了基调。9月17日至18日，媒体团将前往延安新区、南泥湾、宝塔区、安塞区、子长市等地，深入基层一线，在延安的沟岔梁茆间，体悟延安精神、感受延安变迁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（专题） 地址:http://www.sohu.com/a/341641916_115239?scm=0.0.0.0&amp;spm=smpc.subject.column-1.1.1568965312436TElVONx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1484,10 +1022,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（专题） 地址:http://www.sohu.com/subject/316812?code=9ac3c2d783ff4956cc2f9774980cbb52&amp;spm=smpc.home.top-news1.15.15689633806400yqaU7b&amp;_f=index_cpc_0_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">林郑月娥：香港一定会跨过难关 
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1501,10 +1035,6 @@
 林郑月娥当日出席香港中华出入口商会庆祝中华人民共和国成立七十周年酒会并致辞说：“国家经过四十多年的改革开放，不论在经济、社会、民生等各个方面都有长足的发展。回望过去，香港一直发挥担当起连接内地与全球其他国家的角色，把海外企业‘引进来’，并协助内地企业‘走出去’。展望未来，我们将继续抓紧机遇，积极参与国家推动的粤港澳大湾区和‘一带一路’建设，务求为‘国家所需’发展‘香港所长’。”
 林郑月娥表示，目前香港正处于外忧内患之际，受到中美经贸摩擦的影响，香港进出口贸易、运输物流业和相关行业前景仍然困难；加上过去数月香港面对极为严峻的局面，对经济、民生、对外经贸关系、旅游、零售等都不可避免产生负面影响，使香港已经下行的经济情况进一步恶化，甚至可说是雪上加霜。特区政府十分关注中小企及市民在疲弱的经济环境下所承受的压力。财政司司长在上月宣布了一系列“撑企业、保就业、纾民困”的支援措施，希望能够帮助企业和市民面对经济下行带来的挑战。
 林郑月娥强调指出，粤港澳大湾区是新时代国家改革开放下的重大发展战略；香港在大湾区的定位是国际金融、航运、贸易中心和国际航空枢纽。通过融入大湾区的发展，我们会强化香港作为全球离岸人民币业务枢纽和国际资产及风险管理中心的功能，并大力发展创科和国际法律及争议解决服务，从而进一步提升香港的国际金融中心地位。（完）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（专题） 地址:https://www.sohu.com/subject/317574?code=9ac3c2d783ff4956cc2f9774980cbb52&amp;spm=smpc.home.top-news1.16.15689633806400yqaU7b&amp;_f=index_cpc_1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1575,17 +1105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原标题：【辉煌七十载·老外在中国】德国研究生：中国的生态环境持续改善
- 【辉煌七十载·老外在中国】德国研究生-中国的生态环境持续改善
-
-司徒睿姗，来自德国，现在是北京大学燕京学堂的硕士生。
-因为小时候和家人在上海生活了五年，所以对她而言，中国早已不是陌生的国家。在中国，她可以感受到家的温暖。
-20年过去，司徒睿姗眼中的中国发生了巨大变化，其中最让她感到吃惊的是环境的转变，雾霾少多了，天空更蓝了。
-她相信，中国会不断出台更好的新政策让人民的生活环境变得更宜人，她希望有朝一日可以为中国的蓝天贡献自己的力量。
-标签： 老外在中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">联邦快递一飞行员在广东被捕，涉嫌非法运输弹药 
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1603,11 +1122,6 @@
 《华尔街日报》援引霍恩个人律师的说法，被捕原因是非法运输弹药。
 报道称，联邦快递发言人戴维纳·科尔（Davina Cole）19日向CNN证实，确有一名飞行员被捕，但已被取保候审。
 联邦快递在其声明中表示，正在与有关部门联系，以便取得更多信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">贵州检察机关依法以涉嫌受贿罪对刘自力作出逮捕决定 
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1733,14 +1247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原标题：台媒称基里巴斯与台当局“断交” 系本周内第二个
-中新网客户端9月20日电 综合消息，20日，太平洋岛国基里巴斯与台当局“断交”，成为蔡英文上任至今，与台“断交”的第7个“邦交国”。至此，台当局“友邦”降至15个。
-据外交部资料显示，基里巴斯共和国位于太平洋中部，由33个大小岛屿组成(其中21个岛有常住居民)，分属吉尔伯特、菲尼克斯和莱恩三大群岛；是世界上唯一纵跨赤道且横越国际日期变更线的国家。属热带海洋气候。年均气温32℃，年均降水量1600毫米。基里巴斯陆地面积811平方公里，海洋专属经济区面积350万平方公里，人口11.6万(2018年)，首都系塔拉瓦。
-据悉，基里巴斯系本周内第二个宣布与台当局“断交”的国家。
-9月16日，所罗门群岛政府召开内阁会议，决定承认一个中国原则，同台湾“断交”。中国外交部发言人华春莹当日回应称，中方支持所罗门群岛作为主权独立国家自主作出的这一重要决定。中方愿意与所方共同努力，开启两国关系发展新的广阔前景。她指出，世界上只有一个中国，中华人民共和国政府是代表全中国的唯一合法政府，台湾是中国领土不可分割的一部分。这是一个基本事实，也是国际社会的普遍共识。在一个中国原则基础上，中国已经同全世界178个国家建立了正式外交关系。所罗门群岛政府作出承认一个中国原则并同中国建交的决定，再次充分表明一个中国原则是人心所向，大势所趋，势不可挡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">美国华盛顿特区发生枪击案 致1死5伤 
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1821,24 +1327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">造福人民的幸福河 习近平勾勒黄河流域美好未来
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.sina.com.cn/gov/xlxw/2019-09-20/doc-iicezueu7168479.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原标题：联播+ | 造福人民的幸福河！习近平勾勒黄河流域美好未来
-　　联播+9月18日，习近平在河南主持召开黄河流域生态保护和高质量发展座谈会时强调，要共同抓好大保护，协同推进大治理，着力加强生态保护治理、保障黄河长治久安、促进全流域高质量发展、改善人民群众生活、保护传承弘扬黄河文化，让黄河成为造福人民的幸福河。
-　　在中国辽阔的版图上，北有黄河，南有长江，两条大河自西向东奔流入海，哺育了中华民族，孕育了中华文明。
-　　保护母亲河是事关中华民族伟大复兴和永续发展的千秋大计！
-　　如何开创黄河流域生态保护和高质量发展新局面？央视网《联播+》和您一起聆听总书记的殷殷嘱托。
-责任编辑：胡越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>央视</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1866,151 +1354,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（专题） 地址:http://www.qstheory.cn/zt2019/llxjj/index.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">河南考察 习近平提出了哪些重要要求？
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.sina.com.cn/gov/xlxw/2019-09-20/doc-iicezueu7124352.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>　原标题：河南考察，习近平提出了哪些重要要求？
-　　新华网 潘子荻
-　　[学习进行时]9月16日至9月18日，习近平总书记在河南考察。这次考察有何特点？总书记提出了哪些重要要求？新华社《学习进行时》原创品牌栏目“讲习所”今天推出文章，为您解读。
-　　9月16日至18日，习近平总书记来到河南省考察调研。他先后在信阳、郑州等地深入革命老区、农村、企业，强调要认真贯彻落实党中央决策部署，坚持稳中求进工作总基调，坚持新发展理念，统筹做好稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作，打好三大攻坚战，促进经济持续健康发展和社会和谐稳定，不断增强人民群众获得感、幸福感、安全感，在中部地区崛起中奋勇争先，谱写新时代中原更加出彩的绚丽篇章。
-　　这是时隔5年之后总书记又一次到河南考察调研。在庆祝新中国成立70周年前夕，习近平此次考察，提出一系列重要要求，涵意非常丰富。
-　　“吃水不忘掘井人”
-　　大别山区的信阳市新县，是鄂豫皖苏区首府所在地。鄂豫皖苏区是中国共产党在土地革命战争时期领导创建的根据地之一，是仅次于中央苏区的第二大革命根据地，诞生了多支红军主力，创造了“28年红旗不倒”的奇迹。
-　　16日下午，习近平首先来到鄂豫皖苏区首府烈士陵园，瞻仰革命烈士纪念碑、纪念堂，远眺英雄山上“红旗飘飘”主题雕塑。在纪念碑前，习近平向革命先烈敬献花篮并三鞠躬，深情缅怀为革命胜利献出宝贵生命的英雄儿女。
-　　这一幕饱含深情，也并不陌生。
-　　每次到革命老区考察调研，习近平都去瞻仰革命历史纪念场所，同大家一起回忆先辈们探寻革命道路时筚路蓝缕、艰辛奋斗的岁月。
-　　此次河南之行，习近平将鄂豫皖苏区首府烈士陵园作为第一站，缅怀先烈，告慰英灵。联系到庆祝新中国成立70周年这一时间节点，总书记这项安排显然具有极为深刻的用意。
-　　正如他强调的，“吃水不忘掘井人”，红色江山来之不易，是千千万万革命前辈用鲜血换来的。我们要牢记红色政权是从哪里来的，始终铭记缅怀革命先烈。
-　　习近平强调，开展“不忘初心、牢记使命”主题教育，广大党员、干部要不断接受红色传统教育，巩固升华理想信念，坚定走中国特色社会主义道路，奋力实现“两个一百年”奋斗目标，告慰革命先烈。
-　　“不仅要脱贫，而且要致富”
-　　“我们实现第一个百年奋斗目标、全面建成小康社会，没有老区的全面小康，特别是没有老区贫困人口脱贫致富，那是不完整的。”这是习近平总书记经常讲的一句话。
-　　老区人民的生活质量，习近平一直牵挂于心。脱贫攻坚已经取得了辉煌战果，下一步如何建立造血机制，增强老区人民从脱贫到致富内生动力，是习近平考察中一直思考的问题。
-　　来到新县田铺乡田铺大塆，考察创客小店；来到光山县槐店乡，考察油茶产业；来到光山县文殊乡东岳村，察看特色产品……不难看出，发展致富产业是习近平尤为关注的事情。
-　　——发展乡村旅游不要搞大拆大建，要因地制宜、因势利导，把传统村落改造好、保护好。
-　　——要把农民组织起来，面向市场，推广“公司+农户”模式，建立利益联动机制，让各方共同受益。
-　　——要坚持走绿色发展的路子，推广新技术，发展深加工，把油茶业做优做大，努力实现经济发展、农民增收、生态良好。
-　　——要积极发展农村电子商务和快递业务，拓宽农产品销售渠道，增加农民收入。要注意节约环保，杜绝过度包装，避免浪费和污染环境。
-　　……
-　　习近平悉心指导，连连支招，背后是探索建立稳定脱贫长效机制的重要课题。习近平表示，脱贫攻坚既要扶智也要扶志，既要输血更要造血，建立造血机制，增强致富内生动力，防止返贫。要发扬自力更生、自强不息的精神，不仅要脱贫，而且要致富，继续在致富路上奔跑，走向更加富裕的美好生活。
-　　习近平勉励大家，贫困帽子摘了，攻坚精神不能放松。追求美好生活，是永恒的主题，是永远的进行时。
-　　“把我国制造业和实体经济搞上去”
-　　制造业是实体经济的基础，实体经济是我国发展的本钱，是构筑未来发展战略优势的重要支撑。振兴实体经济、推动经济高质量发展，是习近平地方考察时经常提到的话题，也是他这次考察的重要内容。
-　　17日下午，习近平来到郑州煤矿机械集团股份有限公司考察调研，听取了企业开展科技创新、进行海外并购、推动产品转型升级情况介绍，并仔细观看了液压支架操作演示，又一次体现了他对我国制造业和实体经济发展的高度重视。
-　　习近平强调，要坚定推进产业转型升级，加强自主创新，发展高端制造、智能制造，把我国制造业和实体经济搞上去，推动我国经济由量大转向质强，扎扎实实实现“两个一百年”奋斗目标。
-　　当前，我国经济已由高速增长阶段转向高质量发展阶段，必须把发展经济的着力点放在实体经济上，加快建设制造强国，加快发展先进制造业，不断增强我国经济创新力和竞争力。每个产业、每个企业都要朝着这个方向坚定往前走。
-　　18日听取了河南省委和省政府工作汇报后，习近平又进一步强调，要推动经济高质量发展，抓住促进中部地区崛起战略机遇，立足省情实际、扬长避短，把制造业高质量发展作为主攻方向，把创新摆在发展全局的突出位置。
-　　“让黄河成为造福人民的幸福河”
-　　黄河是中华民族的母亲河、中华文明的摇篮。习近平对黄河治理问题特别关心。
-　　党的十八大以来，习近平总书记多次实地考察黄河流域生态保护和发展情况，多次就三江源、祁连山、秦岭等重点区域生态保护建设提出要求。
-　　就在上个月，习近平总书记来到甘肃兰州，前往黄河治理兰铁泵站项目点，听取甘肃省和兰州市开展黄河治理和保护情况介绍。他指出，黄河、长江都是中华民族的母亲河。保护母亲河是事关中华民族伟大复兴和永续发展的千秋大计。
-　　17日下午，习近平来到黄河博物馆，了解黄河流域文明发展、水患治理、生态保护等的历史变迁；他来到黄河国家地质公园临河广场，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况。
-　　18日上午，习近平在河南主持召开黄河流域生态保护和高质量发展座谈会时强调，黄河流域生态保护和高质量发展，同京津冀协同发展、长江经济带发展、粤港澳大湾区建设、长三角一体化发展一样，是重大国家战略。
-　　“黄河宁，天下平”，如何“让黄河成为造福人民的幸福河”，习近平强调：
-　　——要坚持山水林田湖草综合治理、系统治理、源头治理，统筹推进各项工作，加强协同配合，推动黄河流域高质量发展。
-　　——要加强对黄河流域生态保护和高质量发展的领导，发挥我国社会主义制度集中力量干大事的优越性，牢固树立“一盘棋”思想，尊重规律，更加注重保护和治理的系统性、整体性、协同性，抓紧开展顶层设计，加强重大问题研究，着力创新体制机制，推动黄河流域生态保护和高质量发展迈出新的更大步伐。
-　　——要保持历史耐心和战略定力，以功成不必在我的精神境界和功成必定有我的历史担当，既要谋划长远，又要干在当下，一张蓝图绘到底，一茬接着一茬干，让黄河造福人民。
-　　这次河南考察，总书记作出的这些重要指示，事关全局，事关未来。
-责任编辑：胡越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新华网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">在河南考察的三天 习近平关注了哪些问题？
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.sina.com.cn/gov/xlxw/2019-09-20/doc-iicezzrq7164864.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">原标题：新时代学习工作室 在河南考察的三天 习近平总书记关注了哪些问题？
-　　[编者按]9月16日至18日，中共中央总书记、国家主席、中央军委主席习近平先后来到河南省信阳、郑州等地，深入革命老区、农村、企业等，就经济社会发展和“不忘初心、牢记使命”主题教育情况进行考察调研。
-　　这是继2014年后，习近平总书记再赴河南。考察期间，习近平总书记关注了哪些问题？新时代学习工作室带您回顾总书记的精彩发言。
-9月16日至18日，中共中央总书记、国家主席、中央军委主席习近平在河南考察。这是17日上午，习近平来到信阳市光山县槐店乡司马光油茶园，同正在劳作的村民和管理人员交流。新华社记者 鞠鹏摄9月16日至18日，中共中央总书记、国家主席、中央军委主席习近平在河南考察。这是17日上午，习近平来到信阳市光山县槐店乡司马光油茶园，同正在劳作的村民和管理人员交流。新华社记者 鞠鹏摄
-　　谈革命先烈
-　　我每次到革命老区考察调研，都去瞻仰革命历史纪念场所，就是要告诫全党同志不能忘记红色政权是怎么来的、新中国是怎么来的、今天的幸福生活是怎么来的，就是要宣示中国共产党将始终高举红色的旗帜，坚定走中国特色社会主义道路，把先辈们开创的事业不断推向前进。
-　　——9月16日，在信阳市新县鄂豫皖苏区首府烈士陵园瞻仰革命烈士纪念堂时的讲话
-　　革命博物馆、纪念馆、党史馆、烈士陵园等是党和国家红色基因库。要讲好党的故事、革命的故事、根据地的故事、英雄和烈士的故事，加强革命传统教育、爱国主义教育、青少年思想道德教育，把红色基因传承好，确保红色江山永不变色。
-　　——9月16日，来到鄂豫皖苏区首府革命博物馆了解鄂豫皖苏区革命历史时的讲话
-　　吃水不忘掘井人。我们绝不能忘记革命先烈，绝不能忘记老区人民，要把革命老区建设得更好，让老区人民过上更好生活。
-　　——9月16日，在鄂豫皖苏区首府革命博物馆内院会见当地红军后代、革命烈士家属代表时的讲话
-　　红军后代、革命烈士家属传承革命精神有说服力和感染力，要把先辈们的英雄故事讲给大家听，讲给年青一代听，激励人们坚定不移跟党走，为实现美好生活而奋斗。
-　　——9月16日，在鄂豫皖苏区首府革命博物馆内院会见当地红军后代、革命烈士家属代表时的讲话
-9月16日下午，习近平来到位于信阳市新县的鄂豫皖苏区首府烈士陵园，瞻仰革命烈士纪念堂。新华社记者 谢环驰摄9月16日下午，习近平来到位于信阳市新县的鄂豫皖苏区首府烈士陵园，瞻仰革命烈士纪念堂。新华社记者 谢环驰摄
-　　谈乡村振兴
-　　搞乡村振兴，不是说都大拆大建，而是要把这些别具风格的传统村落改造好。
-　　——9月16日，来到新县田铺乡田铺大塆考察调研时的讲话
-　　依托丰富的红色文化资源和绿色生态资源发展乡村旅游，搞活了农村经济，是振兴乡村的好做法。
-　　——9月16日，来到新县田铺乡田铺大塆考察调研时的讲话
-　　要扎实实施乡村振兴战略，积极推进农业供给侧结构性改革，牢牢抓住粮食这个核心竞争力，不断调整优化农业结构，深入推进优质粮食工程，突出抓好耕地保护和地力提升，加快推进高标准农田建设，做好粮食市场和流通的文章，积极稳妥推进土地制度改革，加强同脱贫攻坚战略的有效对接，在乡村振兴中实现农业强省目标。
-　　——9月18日，听取河南省委和省政府工作汇报时的讲话
-9月16日下午，习近平在信阳市新县田铺乡田铺大塆考察调研。 新华社记者 谢环驰摄9月16日下午，习近平在信阳市新县田铺乡田铺大塆考察调研。 新华社记者 谢环驰摄
-　　谈脱贫攻坚
-　　路子找到了，就要大胆去做。要通过“公司加农户”的方式，朝着市场化、规模化的方向发展，使公司和农民彼此受益。
-　　——9月17日，来到光山县司马光油茶园察看当地产业脱贫工作成效时的讲话
-　　党的政策好，还要靠大家去落实。你们要自力更生、自强不息，不仅自己脱贫，而且要争当脱贫致富的带头人。
-　　——9月17日，来到光山县文殊乡东岳村考察当地脱贫攻坚工作成效和中办在光山县扶贫工作情况时的讲话
-　　我一直强调扶贫既要扶智，又要扶志，一个是智慧，一个是志气，不光是输血，还要建立造血机制，脱贫后生活还要不断芝麻开花节节高。
-　　——9月17日，来到光山县文殊乡东岳村考察当地脱贫攻坚工作成效和中办在光山县扶贫工作情况时的讲话
-　　追求更加幸福的美好生活是永恒的主题，是永远的进行时。
-　　——9月17日，来到光山县文殊乡东岳村考察当地脱贫攻坚工作成效和中办在光山县扶贫工作情况时的讲话
-9月17日上午，习近平在信阳市光山县文殊乡东岳村文化接待中心，同当地脱贫致富带头人亲切交流，勉励他们带动更多乡亲们致富。 新华社记者 谢环驰摄9月17日上午，习近平在信阳市光山县文殊乡东岳村文化接待中心，同当地脱贫致富带头人亲切交流，勉励他们带动更多乡亲们致富。 新华社记者 谢环驰摄
-　　谈制造业发展
-　　我们现在制造业规模是世界上最大的，但要继续攀登，靠创新驱动来实现转型升级，通过技术创新、产业创新，在产业链上不断由中低端迈向中高端。
-　　——9月17日，来到郑州煤矿机械集团股份有限公司考察调研时的讲话
-　　一定要把我国制造业搞上去，把实体经济搞上去，扎扎实实实现“两个一百年”奋斗目标。
-　　——9月17日，来到郑州煤矿机械集团股份有限公司考察调研时的讲话
-　　要推动经济高质量发展，抓住促进中部地区崛起战略机遇，立足省情实际、扬长避短，把制造业高质量发展作为主攻方向，把创新摆在发展全局的突出位置，加强重大基础设施建设，坚持以人为核心推进新型城镇化，善于用改革的办法解决经济社会发展中的突出问题，积极融入共建“一带一路”，加快打造内陆开放高地，加快建设现代化经济体系。
-　　——9月18日，听取河南省委和省政府工作汇报时的讲话
-9月17日下午，习近平来到郑州煤矿机械集团股份有限公司考察调研。新华社记者 鞠鹏摄9月17日下午，习近平来到郑州煤矿机械集团股份有限公司考察调研。新华社记者 鞠鹏摄
-　　谈环境治理
-　　新中国成立之初，毛泽东同志就发出了“要把黄河的事情办好”的伟大号召。70年来，党领导人民开创了治黄事业新篇章，创造了黄河岁岁安澜的历史奇迹。
-　　——9月17日，来到黄河国家地质公园临河广场，沿黄河岸边步行察看周边环境，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况时的讲话
-　　实践证明，只有在中国共产党领导下，发挥社会主义制度优势，才能真正实现黄河治理从被动到主动的历史性转变，从根本上改变黄河三年两决口的惨痛状况。
-　　——9月17日，来到黄河国家地质公园临河广场，沿黄河岸边步行察看周边环境，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况时的讲话
-　　要高度重视生态保护工作，牢固树立绿水青山就是金山银山的理念，从源头上解决生态环境问题，持续推进产业结构和能源结构升级优化，努力打造绿色低碳循环发展的经济体系，坚决打赢蓝天、碧水、净土保卫战，统筹推进山水林田湖草系统治理，把沿黄生态保护好，提升自然生态系统质量和稳定性。
-　　——9月18日，听取河南省委和省政府工作汇报时的讲话
-9月17日下午，习近平在郑州黄河国家地质公园，眺望黄河郑州段。 新华社记者 谢环驰摄9月17日下午，习近平在郑州黄河国家地质公园，眺望黄河郑州段。 新华社记者 谢环驰摄
-　　谈主题教育
-　　开展“不忘初心、牢记使命”主题教育，党员、干部要多学党史、新中国史，自觉接受红色传统教育，常学常新，不断感悟，巩固和升华理想信念。
-　　——9月16日，来到鄂豫皖苏区首府革命博物馆了解鄂豫皖苏区革命历史时的讲话
-　　要注重分类指导，力戒形式主义、官僚主义，注重减轻基层负担，注重开门抓教育，注重解决群众最急最忧最盼的紧迫问题，切实把党中央关于主题教育的各项要求落到实处。
-　　——9月18日，听取河南省委和省政府工作汇报时的讲话
-　　鄂豫皖苏区根据地是我们党的重要建党基地，焦裕禄精神、红旗渠精神、大别山精神等都是我们党的宝贵精神财富。开展主题教育，要让广大党员、干部在接受红色教育中守初心、担使命，把革命先烈为之奋斗、为之牺牲的伟大事业奋力推向前进。
-　　——9月18日，听取河南省委和省政府工作汇报时的讲话
-责任编辑：胡越
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">习近平向2019世界制造业大会致贺信
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.sina.com.cn/gov/xlxw/2019-09-20/doc-iicezueu7124310.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">　原标题：习近平向2019世界制造业大会致贺信
-　　新华社北京9月20日电 2019世界制造业大会20日在安徽省合肥市开幕，国家主席习近平致贺信。
-　　习近平指出，当前，全球制造业正经历深刻变革，各国需要加强合作、互学互鉴，共同把握新一轮科技和产业革命机遇，增强制造业技术创新能力，推动制造业质量变革、效率变革、动力变革。
-　　习近平强调，中国高度重视制造业发展，坚持创新驱动发展战略，把推动制造业高质量发展作为构建现代化经济体系的重要一环。中方愿同各方一道，推动制造业新技术蓬勃发展，为促进全球制造业高质量发展、实现共享共赢作出积极贡献。
-责任编辑：王树淼
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2035,38 +1383,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（专题） 地址:https://news.sina.cn/zt_d/lhk0901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">国庆联欢活动当日及预演期间 这些地区燃放烟花
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.sina.com.cn/c/2019-09-19/doc-iicezzrq6830740.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">北京日报
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原标题：国庆70周年联欢活动当日及预演期间，这些地区燃放烟花
-　　9月18日，北京市人民政府发布公告，内容如下：
-　　北京市人民政府关于庆祝中华人民共和国成立70周年联欢活动举办当日及预演期间燃放烟花的公告
-　　依据《北京市烟花爆竹安全管理规定》，市政府决定：2019年庆祝中华人民共和国成立70周年联欢活动举办当日及预演期间，在天安门广场及周边地区燃放烟花。
-　　特此公告。
-　　北京市人民政府
-　　2019年9月18日
-点击进入专题：
-美好生活70年巨变-新中国成立70周年新浪新闻特别报道
-责任编辑：张申</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（专题） 地址:http://news.sina.com.cn/zt_nys/xzgcl70n/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2149,99 +1467,6 @@
 　　那些建言献策的先声，凝聚共识的和声，也是70年时空共振的回声。
 　　记者：王冰笛,刘春晖,高尚,郭刚,李桢宇,李恒毅,林凯,杨进,李帅,梁舜 刘勤兵,米凌子（实习）
 责任编辑：王树淼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">中国稳健前行：开放是当代中国的鲜明标识
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.sina.com.cn/gov/2019-09-19/doc-iicezzrq6908392.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>　　原标题：【中国稳健前行】开放是当代中国的鲜明标识
-　　编者按：新中国成立70年来，在中国共产党的坚强领导下，我国经济社会发展经历了不平凡的伟大历程，取得了举世瞩目的辉煌成就，“中国号”巨轮乘风破浪，向着民族复兴的伟大目标稳健前行。为充分展现中国特色社会主义制度所带来的政治稳定、经济发展、文化繁荣、社会和谐、生态良好、人民幸福的巨大优势，中央网信办与求是杂志社联合组织策划“中国稳健前行”系列理论文章，邀请思想理论界专家学者进行深入阐述，今日在求是网推出第27篇，敬请关注。
-　　内容摘要：我国走出了一条中国特色的以开放促改革、促发展的道路，在不断巩固中国共产党领导和长期保持社会稳定的前提下，实现经济社会的飞跃性发展。开放不仅可以改变资源投入规模，推动技术进步和经济结构升级，还能够促进国家治理体系和治理能力现代化，实现制度供给的有效变迁。过去中国经济发展是在开放条件下取得的，未来中国经济发展也必须在更加开放的条件下进行。在对外开放的坚定步伐中，中国共产党也将在应对各类风险挑战中提升执政能力，持续实现经济社会全面发展，为实现中华民族伟大复兴提供重要保障。 
-　　以开放促改革、促发展，是我国经济社会发展不断取得新成就的重要法宝。改革开放以来，我国走出了一条中国特色的开放道路，在不断巩固中国共产党领导和长期保持社会稳定的前提下，实现经济社会的飞跃性发展，逐步融入世界经济，步入经济全球化和世界经济舞台的中心，成为维护多边经贸体制、推动经济全球化的中坚力量。
-　　以开放促改革、促发展是我国的重要法宝
-　　开放带来进步，封闭必然落后。
-　　纵观五千年中华民族发展史，开放的时代，则是繁盛的时代、快速发展的时代；封闭的时期，则是落后的时期、发展迟缓的时期。汉唐盛世，与外部的联系密切，不同国度、不同民族的交往和人员的交流活跃，货物贸易兴盛。清末时期走入闭关锁国的死胡同，社会经济相对停滞，与世界工业革命蓬勃发展的潮流背道而驰，与先进国家的差距越来越大，泱泱大国成为列强瓜分的鱼肉。新中国成立后，我们独立自主地搞建设、谋发展，取得了不容否定的巨大成就，但受困于内外环境，生产力发展的潜能没能得到充分释放。
-　　1978年12月召开的十一届三中全会，实现新中国成立以来中国共产党的历史上具有深远意义的伟大转折，开启了改革开放和社会主义现代化的伟大征程。改革开放后，我们实现由封闭半封闭到全方位开放的历史转变，中国成功地走出了一条以开放促发展的道路，用几十年时间走完了发达国家几百年走过的工业化历程，实现了经济长期的高速增长，成长为世界第二大经济体，中华民族再次走近世界舞台的中央。
-　　开放之所以能发挥促改革、促发展的作用，在于开放不仅改变了改革开放前资源投入的规模，推动技术进步和经济结构升级，而且还能够促进制度供给的有效变迁。开放带来的制度供给需求，必然会倒逼改革，推进社会主义市场经济体制机制建设。“中国经济要发展，就要敢于到世界市场的汪洋大海中去游泳。”在对外开放中，要发展对外贸易，就必须尊重国际惯例，遵循国际经济贸易规则。要适应国际经贸惯例和规则，就必须改革国内的经济管理体制，建立与国际相衔接的市场经济制度。对外开放与我国经济体制改革的目标是一致的。对外开放促进改革，而改革就是为了建立适宜开放的制度，这种有效的制度供给的变迁正是促进我国经济发展的强劲动力。
-　　中国特色开放道路是我国的巨大优势
-　　40多年的对外开放，我国走出了一条符合国情的具有中国特色的开放道路。
-　　中国特色的开放道路是以人民为中心的开放之路。坚持对外开放的目的是为了更好地发展社会生产力、满足人民日益增长的美好生活需要，实现人的全面发展和全体人民的共同富裕。
-　　中国特色的开放道路是独立自主的开放之路。坚持中国特色社会主义道路、理论、制度、文化，坚持独立自主、自力更生，以稳步有序、渐进可控的方式推进对外开放。
-　　中国特色的开放道路是统筹内外的开放之路。坚持统筹国内国际两个大局，既立足国内，充分运用我国资源、市场、制度等优势，又重视内外联动，积极应对外部环境变化。
-　　中国特色的开放道路是互利共赢的开放之路。坚持共商共建共享的原则，让世界各国实现联动增长，走向共同繁荣、共同进步，在实现自身发展的同时，为世界共同发展进步贡献力量。
-　　我国对外开放的中国特色，体现在对外开放实践的全过程中。我国通过局部地区试点开放，总结经验，考虑社会承受能力，再扩大开放区域，进而形成地理空间上的全方位开放格局。我国设立多种形式的特殊经济区，分别实行着不同的特殊开放政策。这些地区大胆探索开放道路，构建符合国际惯例的规则体系，完善法治环境，提高行政效率，率先打造更好营商环境，实行贸易、投资便利化措施，也成为开展对外贸易、承接全球产业转移和吸收外资、参与国际经济合作的前沿，成为国内外资本、人才、技术、信息等资源的聚集区，发展为区域经济中心和经济发展极，对全国其他地区产生显著的辐射和带动作用。
-　　通过局部率先开放，再扩大开放空间，不断提高开放程度和开放水平。这种渐进开放过程，能避免一步到位的全面开放可能导致的严重冲击，使人民在开放中得到实惠，逐步增强国内企业的竞争力。在渐进开放的过程中，国内企业逐步提高与跨国公司合作的能力，还能形成地区之间的开放竞争，在地区开放竞争中建立开放型经济体制，形成以开放促改革、促发展的社会氛围。正如习近平总书记所指出的“改革开放成为当代中国最显著的特征、最壮丽的气象”。
-　　在开放中培育竞争优势
-　　改革开放以来，我国依靠资源禀赋和劳动力要素的比较优势，发展加工贸易，承接全球制造业转移，大胆吸收外商投资，扩大出口，逐步成长为世界制造中心和国际经济贸易大国。对外贸易额从1978年仅区区206亿美元扩张到2018年超过4．62万亿美元，增长220多倍， 成长为世界第一大货物贸易国，成为120多个国家和地区的主要贸易伙伴。
-　　在发挥比较优势的同时，致力于培育竞争优势。充分发挥中国特色社会主义制度的“集中力量办大事”优势，加大国家对新技术基础研究的投入，不断增强企业技术创新能力，推动新技术应用，跟踪国际标准，促进传统制造业的转型升级。在开放过程中，加强与发达国家、新兴市场国家的经济技术合作与交流，充分利用全球的技术、资本、市场、人才、信息、营销渠道、先进管理经验等优质资源，在全球设置采购中心、制造组装中心、研究设计中心、营销中心、服务中心和管理中心，通过价值链若干环节外包或企业并购，形成产业链各环节的竞争优势，打造我国企业主导的全球价值链，避免在全球价值链中的低端锁定，提升我国企业和产品在国际市场竞争中的优势。
-　　广泛利用全球资源
-　　对外开放40多年来，我国积极吸收外商投资、鼓励企业对外投资，已经成长为吸收外商投资和对外投资大国。为吸引外商投资，中国从出台优惠政策到创造公平的市场竞争环境，不断提升营商环境吸引力，从优惠政策引资到制度环境引资，扩大市场准入范围，放宽外商投资限制，对外资企业实行准入前国民待遇，以平等的市场主体一视同仁对待外资企业和内资企业，保护外商投资企业合法权益，建立市场化法制化国际化、稳定透明可预期的营商环境，我国市场成为对外资最具吸引力的市场之一。
-　　1979—2018年我国累计吸引外商直接投资超过2万亿美元，是吸引外商直接投资最多的发展中国家。外商投资不断扩大，不仅弥补了中国的储蓄缺口和外汇缺口的“双缺口”，而且大幅度提升闲置的劳动力、土地、资源等的利用效率，产生了技术、知识的溢出效应，倒逼国内的改革，推动着经济成长和人民福利水平提高。
-　　鼓励有条件的企业“走出去”，扩大海外投资，完善海外投资政策、法规，改善海外投资管理和服务，越来越多的企业广泛利用全球资源，实现了国内外的资本、技术、管理、信息、人才、营销网络和供应链、价值链优化配置，带动技术和劳务输出。截至2018年末，我国对外直接投资存量达1．98万亿美元，是2002年末存量的66．3倍，在全球分国家地区的对外直接投资存量排名由第25位升至第3位。
-　　在“走出去”扩大海外投资的过程中，注重防范海外投资风险，注重与国内经济发展相协调，实现海外投资增长与国内经济稳定、实体经济健康相结合。
-　　以开放的持续创新把握经济全球化主动权
-　　对外开放40年来，中国在大胆吸收借鉴人类社会创造的优秀文明成果和经验中，不断创新开放的政策措施和方略。 1980年设置经济特区，成为我国对外开放的试验田；1984年又设置沿海开放城市，在沿海开放城市设立经济技术开发区；1987年实行沿海经济发展战略，以发展外向型经济为主；1988年设立海南省经济特区；1990年设立浦东开发开放新区；1992年又推出沿江开放战略和沿边开放战略；1994年设立天津滨海新区。2013年以来，分批设立18个自由贸易试验区，2018年海南全省建立自由贸易试验区，并探索建设中国特色自由贸易港，今年党中央决定把深圳作为中国特色社会主义先行示范区、在上海临港新片区成立自由贸易试验区。从兴办深圳等经济特区、沿海沿边沿江沿线和内陆中心城市对外开放到加入世界贸易组织、共建“一带一路”、设立自由贸易试验区、谋划中国特色自由贸易港、成功举办首届中国国际进口博览会，从“引进来”到“走出去”，无不蕴含着中国智慧，体现出创新开放的理念。创新开放构成了40年多来中国对外开放的重要经验。
-　　只有不断创新开放的形式、内容、体制，培育贸易新业态新模式，创新对外投资方式，打造对外开放新平台新高地，对标国际高水平开放，才能把握经济全球化的主动权，引领经济全球化进程，在国际经济贸易活动中获得更大收益，更好实现开放发展、创新发展。
-　　大变局下的对外开放大有作为
-　　在我国改革开放取得巨大成就、中华民族迎来伟大复兴的关键期，个别国家走向单边主义，挑起贸易争端，冲击全球价值链、供应链体系，经济全球化面临严峻挑战。但是，我国有足够的底气应对挑战，对外开放大有作为。
-　　第一，我国拥有覆盖联合国产业分类中39个大类、191个中类、525个小类的全部工业门类，形成了世界上独有的行业齐全的工业体系，产业配套完整，与世界各国形成了不可分割的产业链、供应链体系，经济韧性强，能够应对贸易投资保护主义带来的挑战。
-　　第二，我国已经成为世界上屈指可数的大消费市场，随着人均收入水平提高，消费市场规模还在持续扩大，消费结构也在升级，内需对国民经济增长的贡献率显著上升，已成为经济增长第一推动力，即便美国发动贸易战对出口造成一定冲击，国内市场的回旋余地也会很大，经济结构转型升级的效应日益显现。
-　　第三，我国顺应经济全球化趋势，高举扩大开放的大旗，站在了道义的制高点。经济全球化是国际生产力发展的产物，各国对开放的世界经济充满期待。我国反对贸易、投资保护主义，坚定维护多边经济体制和经济全球化，倡导以规则为基础、以发展为导向的新型经济全球化，推动建设开放型世界经济体制，得道多助，赢得并将更多赢得世界的广泛支持。
-　　第四，我国主动扩大对外开放，不断出台新的开放举措。积极推进“一带一路”建设，促进中非合作，加强中欧、中日合作，开发“第三方市场”，提升中国－东盟等自贸区水平，实行市场多元化战略；进一步降低关税总水平，减少非关税措施，促进贸易自由化、便利化，主动扩大进口，促进进出口平衡；改进加强知识产权保护，扩大外商投资市场准入，促进投资自由化、便利化，改善外资营商环境，公平对待境外企业和产品；践行竞争中立原则，规范补贴措施，维护多边经贸体制，对标国际先进经贸规则。我国在扩大开放中，广泛结交朋友圈，让认同建立开放型世界经济体系、致力于推进经济全球化的国家和地区能够分享我国开放发展的机遇，使奉行单边主义、贸易投资保护主义者形单影孤。
-　　改革开放是中国人民和中华民族发展史上一次伟大革命，正是这个伟大革命推动了中国特色社会主义事业的伟大飞跃。改革不停顿，开放不止步。习近平总书记强调：“中国开放的大门不会关闭，只会越开越大！” 过去中国经济发展是在开放条件下取得的，未来中国经济发展也必须在更加开放的条件下进行。这是根据中国改革发展客观需要作出的自主选择，有利于推动经济高质量发展，有利于满足人民对美好生活的向往，有利于世界和平、稳定、发展。在对外开放的坚定步伐中，中国共产党也将在应对各类风险挑战中提升执政能力，推进国家治理体系和治理能力现代化，持续实现经济社会全面发展，为实现中华民族伟大复兴提供重要保障。
-　　（作者 桑百川对外经济贸易大学国际经济研究院院长、教授）
-责任编辑：王树淼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">视频-《我们走在大路上》 第七集 艰辛探索
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://video.sina.com.cn/p/news/2019-09-20/detail-iicezzrq7145654.d.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">视频-《我们走在大路上》 第八集 伟大转折
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://video.sina.com.cn/p/news/2019-09-20/detail-iicezueu7109960.d.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">人民日报社论：奋力书写人民政协事业新篇章
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.sina.com.cn/c/2019-09-20/doc-iicezueu7045573.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原标题：奋力书写人民政协事业新篇章——庆祝人民政协成立七十周年
-　　风雨同舟写历史，团结奋进著华章。1949—2019，人民政协走过了70载奋斗历程，创造了辉煌的历史。我们向中国人民政治协商会议成立70周年表示热烈祝贺！
-　　“时间开始了！”1949年9月，在中国人民争取民族独立和人民解放运动取得历史性伟大胜利之际，中国人民政治协商会议第一届全体会议隆重召开，宣告中华人民共和国的成立。70年来，人民政协积极投身建立新中国、建设新中国、探索改革路、实现中国梦的伟大实践，同共和国一道成长、一道奋进。特别是党的十八大以来，在以习近平同志为核心的党中央坚强领导下，人民政协坚持团结和民主两大主题，充分发挥作为社会主义协商民主的重要渠道和专门协商机构作用，在继承中发展、在发展中创新，认真履行职能，建言资政、凝聚共识、汇集力量、服务大局，为党和国家各项事业发展作出了新的积极贡献。事实证明，人民政协植根于中国历史文化，产生于近代以后中国人民革命的伟大斗争，发展于中国特色社会主义光辉实践，具有鲜明中国特色，是实现国家富强、民族振兴、人民幸福的重要力量。
-　　“履不必同，期于适足；治不必同，期于利民。”中国共产党领导的多党合作和政治协商制度作为我国一项基本政治制度，是中国共产党、中国人民和各民主党派、无党派人士的伟大政治创造，是从中国土壤中生长出来的新型政党制度。这一制度既强调中国共产党的领导，也强调发扬社会主义民主，不仅符合当代中国实际，而且符合中华民族一贯倡导的天下为公、兼容并蓄、求同存异等优秀传统文化，是对人类政治文明的重大贡献。在人民政协成立70周年之际，不忘多党合作建立之初心，坚定不移走中国特色社会主义政治发展道路，把我国社会主义政党制度坚持好、发展好、完善好，才能更好激发制度优势，让人民政协这一适合中国国情、具有鲜明中国特色的制度安排焕发新的生机与活力。
-　　人心是最大的政治，共识是奋进的动力。70年来，人民政协的丰富实践积累了宝贵经验，为我们做好人民政协工作确立了重要原则。做好新时代人民政协工作，就要坚持中国共产党的领导，牢记中国共产党的领导是中国特色社会主义最本质的特征，也是人民政协事业发展进步的根本保证；就要坚持人民政协的性质定位，在依照宪法法律和政协章程准确定位的基础上，大力推进自身各项工作和各项事业不断向前发展；就要坚持大团结大联合，最大限度调动一切积极因素，团结一切可以团结的人，汇聚起共襄伟业的强大力量；就要坚持以人民为中心履职尽责，发扬社会主义民主，丰富民主形式，畅通民主渠道，有效组织各党派、各团体、各民族、各阶层、各界人士共商国是，推动实现广泛有效的人民民主。
-　　党的十九大报告指出：“有事好商量，众人的事情由众人商量，是人民民主的真谛。”奋进新时代，需要更好发挥人民政协在国家治理体系中的重要作用，把协商民主贯穿政协履职全过程，在建言资政和凝聚共识上双向发力。面对复杂多变的国际形势和艰巨繁重的国内改革发展稳定任务，人民政协要把加强思想政治引领、广泛凝聚共识作为履职工作的中心环节，加强各党派团体、各族各界人士大团结大联合，担负起把中共中央决策部署和对人民政协工作的要求落实下去、把海内外中华儿女实现中华民族伟大复兴中国梦的智慧和力量凝聚起来的政治责任，努力寻求全社会意愿和要求的最大公约数、画出民心民愿的最大同心圆，广泛凝聚实现中华民族伟大复兴的正能量。
-　　70年砥砺奋进，70年春华秋实。在同心共筑中国梦、共创美好新时代的新长征路上，坚持以习近平新时代中国特色社会主义思想为指导，切实增强“四个意识”、坚定“四个自信”、做到“两个维护”，铸就了辉煌历史的人民政协，必将创造更加璀璨的未来！
-点击进入专题：
-美好生活70年巨变-新中国成立70周年新浪新闻特别报道
-责任编辑：张申</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2675,10 +1900,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（专题） 地址:http://city.sina.com.cn/zt_d/70years/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">五部门：部分国资划社保须在2020年底前基本完成
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2912,191 +2133,6 @@
   <si>
     <t xml:space="preserve">御风翔云利剑出：中国空军“为国仗剑”要靠哪些新锐装备？
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.sina.com.cn/gov/xlxw/2019-09-20/doc-iicezueu7168479.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>　原标题：联播+ | 造福人民的幸福河！习近平勾勒黄河流域美好未来
-　　联播+9月18日，习近平在河南主持召开黄河流域生态保护和高质量发展座谈会时强调，要共同抓好大保护，协同推进大治理，着力加强生态保护治理、保障黄河长治久安、促进全流域高质量发展、改善人民群众生活、保护传承弘扬黄河文化，让黄河成为造福人民的幸福河。
-　　在中国辽阔的版图上，北有黄河，南有长江，两条大河自西向东奔流入海，哺育了中华民族，孕育了中华文明。
-　　保护母亲河是事关中华民族伟大复兴和永续发展的千秋大计！
-　　如何开创黄河流域生态保护和高质量发展新局面？央视网《联播+》和您一起聆听总书记的殷殷嘱托。
-责任编辑：胡越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">习近平提到的五大国家战略关系中国未来
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.sina.com.cn/gov/xlxw/2019-09-20/doc-iicezzrq7208576.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新华视点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>　原标题：图文故事 | 习总书记提到的五大国家战略关系中国未来
-　　习近平总书记18日上午在郑州主持召开黄河流域生态保护和高质量发展座谈会并发表重要讲话。他强调，黄河流域生态保护和高质量发展，同京津冀协同发展、长江经济带发展、粤港澳大湾区建设、长三角一体化发展一样，是重大国家战略。
-　　党的十八大以来，在以习近平同志为核心的党中央坚强领导下，我国深入实施区域协调发展战略，重大国家战略相继推出、精心谋划、扎实推进，区域发展协同性不断增强，资源配置效率全面提高，为经济高质量发展注入澎湃动力。
-　　这五大国家战略，将关系中国未来：
-　　长江经济带发展、黄河流域生态保护和高质量发展，一江、一河，探索协同推进生态优先和绿色发展的新路子；
-　　京津冀协同发展、粤港澳大湾区建设、长三角一体化发展，三大城市群，正在打造引领高质量发展的重要动力源。
-　　京津冀协同发展——
-　　以疏解北京非首都功能为“牛鼻子”推动京津冀协同发展，调整区域经济结构和空间结构，推动河北雄安新区和北京城市副中心建设，探索超大城市、特大城市等人口经济密集地区有序疏解功能、有效治理“大城市病”的优化开发模式。
-　　2013年，习近平先后到天津、河北调研，强调要推动京津冀协同发展。
-　　2014年2月25日至26日，习近平在北京市考察并主持召开座谈会。围绕实现京津冀协同发展，他指出，是一个重大国家战略，要坚持优势互补、互利共赢、扎实推进，加快走出一条科学持续的协同发展路子来。
-　　5年时光，京津冀大地发生时代巨变。
-　　2019年1月16日至18日，习近平再次来到京津冀三省市考察并主持召开京津冀协同发展座谈会。他强调，过去的5年，京津冀协同发展总体上处于谋思路、打基础、寻突破的阶段，当前和今后一个时期进入到滚石上山、爬坡过坎、攻坚克难的关键阶段，需要下更大气力推进工作。
-　　长江经济带发展——
-　　充分发挥长江经济带横跨东中西三大板块的区位优势，以共抓大保护、不搞大开发为导向，以生态优先、绿色发展为引领，依托长江黄金水道，推动长江上中下游地区协调发展和沿江地区高质量发展。
-　　长江，中华民族的母亲河。2016年1月5日，习近平在重庆召开推动长江经济带发展座谈会。他强调，推动长江经济带发展必须从中华民族长远利益考虑，走生态优先、绿色发展之路，使绿水青山产生巨大生态效益、经济效益、社会效益，使母亲河永葆生机活力。
-　　共抓大保护、不搞大开发，中华民族母亲河，焕发出新的神采。
-　　2018年4月26日，习近平在武汉主持召开深入推动长江经济带发展座谈会并发表重要讲话。
-　　他强调，推动长江经济带发展是党中央作出的重大决策，是关系国家发展全局的重大战略。新形势下推动长江经济带发展，关键是要正确把握整体推进和重点突破、生态环境保护和经济发展、总体谋划和久久为功、破除旧动能和培育新动能、自我发展和协同发展的关系，坚持新发展理念，坚持稳中求进工作总基调，坚持共抓大保护、不搞大开发，加强改革创新、战略统筹、规划引导，以长江经济带发展推动经济高质量发展。
-　　粤港澳大湾区建设——
-　　风起南海，潮涌珠江。
-　　这里，是中国改革开放得风气之先的地方，是中国开放程度最高、经济活力最强的区域之一。
-　　2012年12月，习近平在党的十八大后首次离京考察就来到广东。他指出，希望广东联手港澳打造更具综合竞争力的世界级城市群。
-　　2018年10月，习近平再次踏上广东这片热土。他强调，要把粤港澳大湾区建设作为广东改革开放的大机遇、大文章，抓紧抓实办好。
-　　2019年2月18日，中共中央、国务院印发的《粤港澳大湾区发展规划纲要》正式公布。粤港澳大湾区建设迈出坚实的脚步，美好愿景正变成生动现实。
-　　长三角一体化发展——
-　　长三角是我国经济发展最活跃、开放程度最高、创新能力最强的区域之一，在全国经济中具有举足轻重的地位。
-　　2018年11月5日，习近平在首届中国国际进口博览会开幕式上发表主旨演讲，提出将支持长江三角洲区域一体化发展并上升为国家战略。
-　　他指出，着力落实新发展理念，构建现代化经济体系，推进更高起点的深化改革和更高层次的对外开放，同“一带一路”建设、京津冀协同发展、长江经济带发展、粤港澳大湾区建设相互配合，完善中国改革开放空间布局。
-　　2019年5月13日召开的中共中央政治局会议审议了《长江三角洲区域一体化发展规划纲要》。
-　　会议强调，长三角一体化发展具有极大的区域带动和示范作用，要紧扣“一体化”和“高质量”两个关键，带动整个长江经济带和华东地区发展，形成高质量发展的区域集群。
-　　黄河流域生态保护和高质量发展——
-　　黄河是中华民族的母亲河、中华文明的摇篮。
-　　党的十八大以来，习近平多次实地考察黄河流域生态保护和发展情况，多次就三江源、祁连山、秦岭等重点区域生态保护建设提出要求。
-　　2019年8月19日至22日，习近平在甘肃考察期间，前往黄河治理兰铁泵站项目点，听取甘肃省和兰州市开展黄河治理和保护情况介绍。
-　　他指出，治理黄河，重在保护，要在治理。要坚持山水林田湖草综合治理、系统治理、源头治理，统筹推进各项工作，加强协同配合，共同抓好大保护，协同推进大治理，推动黄河流域高质量发展，让黄河成为造福人民的幸福河。
-　　2019年9月16日至18日，习近平在河南考察期间，参观黄河博物馆，来到黄河国家地质公园临河广场，沿黄河岸边步行察看周边环境，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况。
-　　18日上午，习近平主持召开黄河流域生态保护和高质量发展座谈会并发表重要讲话，强调要坚持绿水青山就是金山银山的理念，坚持生态优先、绿色发展，以水而定、量水而行，因地制宜、分类施策，上下游、干支流、左右岸统筹谋划，共同抓好大保护，协同推进大治理，着力加强生态保护治理、保障黄河长治久安、促进全流域高质量发展、改善人民群众生活、保护传承弘扬黄河文化，让黄河成为造福人民的幸福河。
-　　文字：安蓓、申铖
-责任编辑：胡越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原标题：河南考察，习近平提出了哪些重要要求？
-　　新华网 潘子荻
-　　[学习进行时]9月16日至9月18日，习近平总书记在河南考察。这次考察有何特点？总书记提出了哪些重要要求？新华社《学习进行时》原创品牌栏目“讲习所”今天推出文章，为您解读。
-　　9月16日至18日，习近平总书记来到河南省考察调研。他先后在信阳、郑州等地深入革命老区、农村、企业，强调要认真贯彻落实党中央决策部署，坚持稳中求进工作总基调，坚持新发展理念，统筹做好稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作，打好三大攻坚战，促进经济持续健康发展和社会和谐稳定，不断增强人民群众获得感、幸福感、安全感，在中部地区崛起中奋勇争先，谱写新时代中原更加出彩的绚丽篇章。
-　　这是时隔5年之后总书记又一次到河南考察调研。在庆祝新中国成立70周年前夕，习近平此次考察，提出一系列重要要求，涵意非常丰富。
-　　“吃水不忘掘井人”
-　　大别山区的信阳市新县，是鄂豫皖苏区首府所在地。鄂豫皖苏区是中国共产党在土地革命战争时期领导创建的根据地之一，是仅次于中央苏区的第二大革命根据地，诞生了多支红军主力，创造了“28年红旗不倒”的奇迹。
-　　16日下午，习近平首先来到鄂豫皖苏区首府烈士陵园，瞻仰革命烈士纪念碑、纪念堂，远眺英雄山上“红旗飘飘”主题雕塑。在纪念碑前，习近平向革命先烈敬献花篮并三鞠躬，深情缅怀为革命胜利献出宝贵生命的英雄儿女。
-　　这一幕饱含深情，也并不陌生。
-　　每次到革命老区考察调研，习近平都去瞻仰革命历史纪念场所，同大家一起回忆先辈们探寻革命道路时筚路蓝缕、艰辛奋斗的岁月。
-　　此次河南之行，习近平将鄂豫皖苏区首府烈士陵园作为第一站，缅怀先烈，告慰英灵。联系到庆祝新中国成立70周年这一时间节点，总书记这项安排显然具有极为深刻的用意。
-　　正如他强调的，“吃水不忘掘井人”，红色江山来之不易，是千千万万革命前辈用鲜血换来的。我们要牢记红色政权是从哪里来的，始终铭记缅怀革命先烈。
-　　习近平强调，开展“不忘初心、牢记使命”主题教育，广大党员、干部要不断接受红色传统教育，巩固升华理想信念，坚定走中国特色社会主义道路，奋力实现“两个一百年”奋斗目标，告慰革命先烈。
-　　“不仅要脱贫，而且要致富”
-　　“我们实现第一个百年奋斗目标、全面建成小康社会，没有老区的全面小康，特别是没有老区贫困人口脱贫致富，那是不完整的。”这是习近平总书记经常讲的一句话。
-　　老区人民的生活质量，习近平一直牵挂于心。脱贫攻坚已经取得了辉煌战果，下一步如何建立造血机制，增强老区人民从脱贫到致富内生动力，是习近平考察中一直思考的问题。
-　　来到新县田铺乡田铺大塆，考察创客小店；来到光山县槐店乡，考察油茶产业；来到光山县文殊乡东岳村，察看特色产品……不难看出，发展致富产业是习近平尤为关注的事情。
-　　——发展乡村旅游不要搞大拆大建，要因地制宜、因势利导，把传统村落改造好、保护好。
-　　——要把农民组织起来，面向市场，推广“公司+农户”模式，建立利益联动机制，让各方共同受益。
-　　——要坚持走绿色发展的路子，推广新技术，发展深加工，把油茶业做优做大，努力实现经济发展、农民增收、生态良好。
-　　——要积极发展农村电子商务和快递业务，拓宽农产品销售渠道，增加农民收入。要注意节约环保，杜绝过度包装，避免浪费和污染环境。
-　　……
-　　习近平悉心指导，连连支招，背后是探索建立稳定脱贫长效机制的重要课题。习近平表示，脱贫攻坚既要扶智也要扶志，既要输血更要造血，建立造血机制，增强致富内生动力，防止返贫。要发扬自力更生、自强不息的精神，不仅要脱贫，而且要致富，继续在致富路上奔跑，走向更加富裕的美好生活。
-　　习近平勉励大家，贫困帽子摘了，攻坚精神不能放松。追求美好生活，是永恒的主题，是永远的进行时。
-　　“把我国制造业和实体经济搞上去”
-　　制造业是实体经济的基础，实体经济是我国发展的本钱，是构筑未来发展战略优势的重要支撑。振兴实体经济、推动经济高质量发展，是习近平地方考察时经常提到的话题，也是他这次考察的重要内容。
-　　17日下午，习近平来到郑州煤矿机械集团股份有限公司考察调研，听取了企业开展科技创新、进行海外并购、推动产品转型升级情况介绍，并仔细观看了液压支架操作演示，又一次体现了他对我国制造业和实体经济发展的高度重视。
-　　习近平强调，要坚定推进产业转型升级，加强自主创新，发展高端制造、智能制造，把我国制造业和实体经济搞上去，推动我国经济由量大转向质强，扎扎实实实现“两个一百年”奋斗目标。
-　　当前，我国经济已由高速增长阶段转向高质量发展阶段，必须把发展经济的着力点放在实体经济上，加快建设制造强国，加快发展先进制造业，不断增强我国经济创新力和竞争力。每个产业、每个企业都要朝着这个方向坚定往前走。
-　　18日听取了河南省委和省政府工作汇报后，习近平又进一步强调，要推动经济高质量发展，抓住促进中部地区崛起战略机遇，立足省情实际、扬长避短，把制造业高质量发展作为主攻方向，把创新摆在发展全局的突出位置。
-　　“让黄河成为造福人民的幸福河”
-　　黄河是中华民族的母亲河、中华文明的摇篮。习近平对黄河治理问题特别关心。
-　　党的十八大以来，习近平总书记多次实地考察黄河流域生态保护和发展情况，多次就三江源、祁连山、秦岭等重点区域生态保护建设提出要求。
-　　就在上个月，习近平总书记来到甘肃兰州，前往黄河治理兰铁泵站项目点，听取甘肃省和兰州市开展黄河治理和保护情况介绍。他指出，黄河、长江都是中华民族的母亲河。保护母亲河是事关中华民族伟大复兴和永续发展的千秋大计。
-　　17日下午，习近平来到黄河博物馆，了解黄河流域文明发展、水患治理、生态保护等的历史变迁；他来到黄河国家地质公园临河广场，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况。
-　　18日上午，习近平在河南主持召开黄河流域生态保护和高质量发展座谈会时强调，黄河流域生态保护和高质量发展，同京津冀协同发展、长江经济带发展、粤港澳大湾区建设、长三角一体化发展一样，是重大国家战略。
-　　“黄河宁，天下平”，如何“让黄河成为造福人民的幸福河”，习近平强调：
-　　——要坚持山水林田湖草综合治理、系统治理、源头治理，统筹推进各项工作，加强协同配合，推动黄河流域高质量发展。
-　　——要加强对黄河流域生态保护和高质量发展的领导，发挥我国社会主义制度集中力量干大事的优越性，牢固树立“一盘棋”思想，尊重规律，更加注重保护和治理的系统性、整体性、协同性，抓紧开展顶层设计，加强重大问题研究，着力创新体制机制，推动黄河流域生态保护和高质量发展迈出新的更大步伐。
-　　——要保持历史耐心和战略定力，以功成不必在我的精神境界和功成必定有我的历史担当，既要谋划长远，又要干在当下，一张蓝图绘到底，一茬接着一茬干，让黄河造福人民。
-　　这次河南考察，总书记作出的这些重要指示，事关全局，事关未来。
-责任编辑：胡越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">在河南考察的三天 习近平关注了哪些问题？
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.sina.com.cn/gov/xlxw/2019-09-20/doc-iicezzrq7164864.shtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原标题：新时代学习工作室 在河南考察的三天 习近平总书记关注了哪些问题？
-　　[编者按]9月16日至18日，中共中央总书记、国家主席、中央军委主席习近平先后来到河南省信阳、郑州等地，深入革命老区、农村、企业等，就经济社会发展和“不忘初心、牢记使命”主题教育情况进行考察调研。
-　　这是继2014年后，习近平总书记再赴河南。考察期间，习近平总书记关注了哪些问题？新时代学习工作室带您回顾总书记的精彩发言。
-9月16日至18日，中共中央总书记、国家主席、中央军委主席习近平在河南考察。这是17日上午，习近平来到信阳市光山县槐店乡司马光油茶园，同正在劳作的村民和管理人员交流。新华社记者 鞠鹏摄9月16日至18日，中共中央总书记、国家主席、中央军委主席习近平在河南考察。这是17日上午，习近平来到信阳市光山县槐店乡司马光油茶园，同正在劳作的村民和管理人员交流。新华社记者 鞠鹏摄
-　　谈革命先烈
-　　我每次到革命老区考察调研，都去瞻仰革命历史纪念场所，就是要告诫全党同志不能忘记红色政权是怎么来的、新中国是怎么来的、今天的幸福生活是怎么来的，就是要宣示中国共产党将始终高举红色的旗帜，坚定走中国特色社会主义道路，把先辈们开创的事业不断推向前进。
-　　——9月16日，在信阳市新县鄂豫皖苏区首府烈士陵园瞻仰革命烈士纪念堂时的讲话
-　　革命博物馆、纪念馆、党史馆、烈士陵园等是党和国家红色基因库。要讲好党的故事、革命的故事、根据地的故事、英雄和烈士的故事，加强革命传统教育、爱国主义教育、青少年思想道德教育，把红色基因传承好，确保红色江山永不变色。
-　　——9月16日，来到鄂豫皖苏区首府革命博物馆了解鄂豫皖苏区革命历史时的讲话
-　　吃水不忘掘井人。我们绝不能忘记革命先烈，绝不能忘记老区人民，要把革命老区建设得更好，让老区人民过上更好生活。
-　　——9月16日，在鄂豫皖苏区首府革命博物馆内院会见当地红军后代、革命烈士家属代表时的讲话
-　　红军后代、革命烈士家属传承革命精神有说服力和感染力，要把先辈们的英雄故事讲给大家听，讲给年青一代听，激励人们坚定不移跟党走，为实现美好生活而奋斗。
-　　——9月16日，在鄂豫皖苏区首府革命博物馆内院会见当地红军后代、革命烈士家属代表时的讲话
-9月16日下午，习近平来到位于信阳市新县的鄂豫皖苏区首府烈士陵园，瞻仰革命烈士纪念堂。新华社记者 谢环驰摄9月16日下午，习近平来到位于信阳市新县的鄂豫皖苏区首府烈士陵园，瞻仰革命烈士纪念堂。新华社记者 谢环驰摄
-　　谈乡村振兴
-　　搞乡村振兴，不是说都大拆大建，而是要把这些别具风格的传统村落改造好。
-　　——9月16日，来到新县田铺乡田铺大塆考察调研时的讲话
-　　依托丰富的红色文化资源和绿色生态资源发展乡村旅游，搞活了农村经济，是振兴乡村的好做法。
-　　——9月16日，来到新县田铺乡田铺大塆考察调研时的讲话
-　　要扎实实施乡村振兴战略，积极推进农业供给侧结构性改革，牢牢抓住粮食这个核心竞争力，不断调整优化农业结构，深入推进优质粮食工程，突出抓好耕地保护和地力提升，加快推进高标准农田建设，做好粮食市场和流通的文章，积极稳妥推进土地制度改革，加强同脱贫攻坚战略的有效对接，在乡村振兴中实现农业强省目标。
-　　——9月18日，听取河南省委和省政府工作汇报时的讲话
-9月16日下午，习近平在信阳市新县田铺乡田铺大塆考察调研。 新华社记者 谢环驰摄9月16日下午，习近平在信阳市新县田铺乡田铺大塆考察调研。 新华社记者 谢环驰摄
-　　谈脱贫攻坚
-　　路子找到了，就要大胆去做。要通过“公司加农户”的方式，朝着市场化、规模化的方向发展，使公司和农民彼此受益。
-　　——9月17日，来到光山县司马光油茶园察看当地产业脱贫工作成效时的讲话
-　　党的政策好，还要靠大家去落实。你们要自力更生、自强不息，不仅自己脱贫，而且要争当脱贫致富的带头人。
-　　——9月17日，来到光山县文殊乡东岳村考察当地脱贫攻坚工作成效和中办在光山县扶贫工作情况时的讲话
-　　我一直强调扶贫既要扶智，又要扶志，一个是智慧，一个是志气，不光是输血，还要建立造血机制，脱贫后生活还要不断芝麻开花节节高。
-　　——9月17日，来到光山县文殊乡东岳村考察当地脱贫攻坚工作成效和中办在光山县扶贫工作情况时的讲话
-　　追求更加幸福的美好生活是永恒的主题，是永远的进行时。
-　　——9月17日，来到光山县文殊乡东岳村考察当地脱贫攻坚工作成效和中办在光山县扶贫工作情况时的讲话
-9月17日上午，习近平在信阳市光山县文殊乡东岳村文化接待中心，同当地脱贫致富带头人亲切交流，勉励他们带动更多乡亲们致富。 新华社记者 谢环驰摄9月17日上午，习近平在信阳市光山县文殊乡东岳村文化接待中心，同当地脱贫致富带头人亲切交流，勉励他们带动更多乡亲们致富。 新华社记者 谢环驰摄
-　　谈制造业发展
-　　我们现在制造业规模是世界上最大的，但要继续攀登，靠创新驱动来实现转型升级，通过技术创新、产业创新，在产业链上不断由中低端迈向中高端。
-　　——9月17日，来到郑州煤矿机械集团股份有限公司考察调研时的讲话
-　　一定要把我国制造业搞上去，把实体经济搞上去，扎扎实实实现“两个一百年”奋斗目标。
-　　——9月17日，来到郑州煤矿机械集团股份有限公司考察调研时的讲话
-　　要推动经济高质量发展，抓住促进中部地区崛起战略机遇，立足省情实际、扬长避短，把制造业高质量发展作为主攻方向，把创新摆在发展全局的突出位置，加强重大基础设施建设，坚持以人为核心推进新型城镇化，善于用改革的办法解决经济社会发展中的突出问题，积极融入共建“一带一路”，加快打造内陆开放高地，加快建设现代化经济体系。
-　　——9月18日，听取河南省委和省政府工作汇报时的讲话
-9月17日下午，习近平来到郑州煤矿机械集团股份有限公司考察调研。新华社记者 鞠鹏摄9月17日下午，习近平来到郑州煤矿机械集团股份有限公司考察调研。新华社记者 鞠鹏摄
-　　谈环境治理
-　　新中国成立之初，毛泽东同志就发出了“要把黄河的事情办好”的伟大号召。70年来，党领导人民开创了治黄事业新篇章，创造了黄河岁岁安澜的历史奇迹。
-　　——9月17日，来到黄河国家地质公园临河广场，沿黄河岸边步行察看周边环境，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况时的讲话
-　　实践证明，只有在中国共产党领导下，发挥社会主义制度优势，才能真正实现黄河治理从被动到主动的历史性转变，从根本上改变黄河三年两决口的惨痛状况。
-　　——9月17日，来到黄河国家地质公园临河广场，沿黄河岸边步行察看周边环境，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况时的讲话
-　　要高度重视生态保护工作，牢固树立绿水青山就是金山银山的理念，从源头上解决生态环境问题，持续推进产业结构和能源结构升级优化，努力打造绿色低碳循环发展的经济体系，坚决打赢蓝天、碧水、净土保卫战，统筹推进山水林田湖草系统治理，把沿黄生态保护好，提升自然生态系统质量和稳定性。
-　　——9月18日，听取河南省委和省政府工作汇报时的讲话
-9月17日下午，习近平在郑州黄河国家地质公园，眺望黄河郑州段。 新华社记者 谢环驰摄9月17日下午，习近平在郑州黄河国家地质公园，眺望黄河郑州段。 新华社记者 谢环驰摄
-　　谈主题教育
-　　开展“不忘初心、牢记使命”主题教育，党员、干部要多学党史、新中国史，自觉接受红色传统教育，常学常新，不断感悟，巩固和升华理想信念。
-　　——9月16日，来到鄂豫皖苏区首府革命博物馆了解鄂豫皖苏区革命历史时的讲话
-　　要注重分类指导，力戒形式主义、官僚主义，注重减轻基层负担，注重开门抓教育，注重解决群众最急最忧最盼的紧迫问题，切实把党中央关于主题教育的各项要求落到实处。
-　　——9月18日，听取河南省委和省政府工作汇报时的讲话
-　　鄂豫皖苏区根据地是我们党的重要建党基地，焦裕禄精神、红旗渠精神、大别山精神等都是我们党的宝贵精神财富。开展主题教育，要让广大党员、干部在接受红色教育中守初心、担使命，把革命先烈为之奋斗、为之牺牲的伟大事业奋力推向前进。
-　　——9月18日，听取河南省委和省政府工作汇报时的讲话
-责任编辑：胡越</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3715,76 +2751,6 @@
   </si>
   <si>
     <t>网易新闻中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">造福人民的幸福河！习近平勾勒黄河流域美好未来
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.163.com/19/0920/14/EPHBICCK000189FH.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">（原标题：联播+ | 造福人民的幸福河！习近平勾勒黄河流域美好未来）
-联播+9月18日，习近平在河南主持召开黄河流域生态保护和高质量发展座谈会时强调，要共同抓好大保护，协同推进大治理，着力加强生态保护治理、保障黄河长治久安、促进全流域高质量发展、改善人民群众生活、保护传承弘扬黄河文化，让黄河成为造福人民的幸福河。
-在中国辽阔的版图上，北有黄河，南有长江，两条大河自西向东奔流入海，哺育了中华民族，孕育了中华文明。
-保护母亲河是事关中华民族伟大复兴和永续发展的千秋大计！
-如何开创黄河流域生态保护和高质量发展新局面？央视网《联播+》和您一起聆听总书记的殷殷嘱托。
- </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">河南考察，习近平提出了哪些重要要求？
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://news.163.com/19/0920/12/EPH1O5PR000189FH.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（原标题：河南考察，习近平提出了哪些重要要求？）
-【学习进行时】9月16日至9月18日，习近平总书记在河南考察。这次考察有何特点？总书记提出了哪些重要要求？新华社《学习进行时》原创品牌栏目“讲习所”今天推出文章，为您解读。
-9月16日至18日，习近平总书记来到河南省考察调研。他先后在信阳、郑州等地深入革命老区、农村、企业，强调要认真贯彻落实党中央决策部署，坚持稳中求进工作总基调，坚持新发展理念，统筹做好稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作，打好三大攻坚战，促进经济持续健康发展和社会和谐稳定，不断增强人民群众获得感、幸福感、安全感，在中部地区崛起中奋勇争先，谱写新时代中原更加出彩的绚丽篇章。
-这是时隔5年之后总书记又一次到河南考察调研。在庆祝新中国成立70周年前夕，习近平此次考察，提出一系列重要要求，涵意非常丰富。
-“吃水不忘掘井人”
-大别山区的信阳市新县，是鄂豫皖苏区首府所在地。鄂豫皖苏区是中国共产党在土地革命战争时期领导创建的根据地之一，是仅次于中央苏区的第二大革命根据地，诞生了多支红军主力，创造了“28年红旗不倒”的奇迹。
-16日下午，习近平首先来到鄂豫皖苏区首府烈士陵园，瞻仰革命烈士纪念碑、纪念堂，远眺英雄山上“红旗飘飘”主题雕塑。在纪念碑前，习近平向革命先烈敬献花篮并三鞠躬，深情缅怀为革命胜利献出宝贵生命的英雄儿女。
-这一幕饱含深情，也并不陌生。
-每次到革命老区考察调研，习近平都去瞻仰革命历史纪念场所，同大家一起回忆先辈们探寻革命道路时筚路蓝缕、艰辛奋斗的岁月。
-此次河南之行，习近平将鄂豫皖苏区首府烈士陵园作为第一站，缅怀先烈，告慰英灵。联系到庆祝新中国成立70周年这一时间节点，总书记这项安排显然具有极为深刻的用意。
-正如他强调的，“吃水不忘掘井人”，红色江山来之不易，是千千万万革命前辈用鲜血换来的。我们要牢记红色政权是从哪里来的，始终铭记缅怀革命先烈。
-习近平强调，开展“不忘初心、牢记使命”主题教育，广大党员、干部要不断接受红色传统教育，巩固升华理想信念，坚定走中国特色社会主义道路，奋力实现“两个一百年”奋斗目标，告慰革命先烈。
-“不仅要脱贫，而且要致富”
-“我们实现第一个百年奋斗目标、全面建成小康社会，没有老区的全面小康，特别是没有老区贫困人口脱贫致富，那是不完整的。”这是习近平总书记经常讲的一句话。
-老区人民的生活质量，习近平一直牵挂于心。脱贫攻坚已经取得了辉煌战果，下一步如何建立造血机制，增强老区人民从脱贫到致富内生动力，是习近平考察中一直思考的问题。
-来到新县田铺乡田铺大塆，考察创客小店；来到光山县槐店乡，考察油茶产业；来到光山县文殊乡东岳村，察看特色产品……不难看出，发展致富产业是习近平尤为关注的事情。
-——发展乡村旅游不要搞大拆大建，要因地制宜、因势利导，把传统村落改造好、保护好。
-——要把农民组织起来，面向市场，推广“公司+农户”模式，建立利益联动机制，让各方共同受益。
-——要坚持走绿色发展的路子，推广新技术，发展深加工，把油茶业做优做大，努力实现经济发展、农民增收、生态良好。
-——要积极发展农村电子商务和快递业务，拓宽农产品销售渠道，增加农民收入。要注意节约环保，杜绝过度包装，避免浪费和污染环境。
-……
-习近平悉心指导，连连支招，背后是探索建立稳定脱贫长效机制的重要课题。习近平表示，脱贫攻坚既要扶智也要扶志，既要输血更要造血，建立造血机制，增强致富内生动力，防止返贫。要发扬自力更生、自强不息的精神，不仅要脱贫，而且要致富，继续在致富路上奔跑，走向更加富裕的美好生活。
-习近平勉励大家，贫困帽子摘了，攻坚精神不能放松。追求美好生活，是永恒的主题，是永远的进行时。
-“把我国制造业和实体经济搞上去”
-制造业是实体经济的基础，实体经济是我国发展的本钱，是构筑未来发展战略优势的重要支撑。振兴实体经济、推动经济高质量发展，是习近平地方考察时经常提到的话题，也是他这次考察的重要内容。
-17日下午，习近平来到郑州煤矿机械集团股份有限公司考察调研，听取了企业开展科技创新、进行海外并购、推动产品转型升级情况介绍，并仔细观看了液压支架操作演示，又一次体现了他对我国制造业和实体经济发展的高度重视。
-习近平强调，要坚定推进产业转型升级，加强自主创新，发展高端制造、智能制造，把我国制造业和实体经济搞上去，推动我国经济由量大转向质强，扎扎实实实现“两个一百年”奋斗目标。
-当前，我国经济已由高速增长阶段转向高质量发展阶段，必须把发展经济的着力点放在实体经济上，加快建设制造强国，加快发展先进制造业，不断增强我国经济创新力和竞争力。每个产业、每个企业都要朝着这个方向坚定往前走。
-18日听取了河南省委和省政府工作汇报后，习近平又进一步强调，要推动经济高质量发展，抓住促进中部地区崛起战略机遇，立足省情实际、扬长避短，把制造业高质量发展作为主攻方向，把创新摆在发展全局的突出位置。
-“让黄河成为造福人民的幸福河”
-黄河是中华民族的母亲河、中华文明的摇篮。习近平对黄河治理问题特别关心。
-党的十八大以来，习近平总书记多次实地考察黄河流域生态保护和发展情况，多次就三江源、祁连山、秦岭等重点区域生态保护建设提出要求。
-就在上个月，习近平总书记来到甘肃兰州，前往黄河治理兰铁泵站项目点，听取甘肃省和兰州市开展黄河治理和保护情况介绍。他指出，黄河、长江都是中华民族的母亲河。保护母亲河是事关中华民族伟大复兴和永续发展的千秋大计。
-17日下午，习近平来到黄河博物馆，了解黄河流域文明发展、水患治理、生态保护等的历史变迁；他来到黄河国家地质公园临河广场，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况。
-18日上午，习近平在河南主持召开黄河流域生态保护和高质量发展座谈会时强调，黄河流域生态保护和高质量发展，同京津冀协同发展、长江经济带发展、粤港澳大湾区建设、长三角一体化发展一样，是重大国家战略。
-“黄河宁，天下平”，如何“让黄河成为造福人民的幸福河”，习近平强调：
-——要坚持山水林田湖草综合治理、系统治理、源头治理，统筹推进各项工作，加强协同配合，推动黄河流域高质量发展。
-——要加强对黄河流域生态保护和高质量发展的领导，发挥我国社会主义制度集中力量干大事的优越性，牢固树立“一盘棋”思想，尊重规律，更加注重保护和治理的系统性、整体性、协同性，抓紧开展顶层设计，加强重大问题研究，着力创新体制机制，推动黄河流域生态保护和高质量发展迈出新的更大步伐。
-——要保持历史耐心和战略定力，以功成不必在我的精神境界和功成必定有我的历史担当，既要谋划长远，又要干在当下，一张蓝图绘到底，一茬接着一茬干，让黄河造福人民。
-这次河南考察，总书记作出的这些重要指示，事关全局，事关未来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4917,6 +3883,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://finance.huanqiu.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://tech.huanqiu.com/it/2019-09/15474556.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5116,6 +4086,14 @@
 7年过去了，田保卫经常跑到自己以前的责任田，看着已是树茂花开，“心里别提多得劲儿”。
 时勇军说，70年前，郑州城区只有5.23平方公里，人口16.4万人，赶不上今天一个偏远县城的规模。2018年，郑州市实现了“地区生产总值破万亿、常住人口破千万、人均生产总值破10万”三大标志性突破，叠加郑州航空港经济综合实验区、中原城市群、郑州国家中心城市等重大战略，努力打造“郑州大都市区”，日益彰显“国际范”。
 举报责编：魏少璞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（环球网财经主页）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6132,6 +5110,54 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">联邦快递一飞行员在广东被捕，涉嫌非法运输弹药
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原标题：台媒称基里巴斯与台当局“断交” 系本周内第二个
+中新网客户端9月20日电 综合消息，20日，太平洋岛国基里巴斯与台当局“断交”，成为蔡英文上任至今，与台“断交”的第7个“邦交国”。至此，台当局“友邦”降至15个。
+据外交部资料显示，基里巴斯共和国位于太平洋中部，由33个大小岛屿组成(其中21个岛有常住居民)，分属吉尔伯特、菲尼克斯和莱恩三大群岛；是世界上唯一纵跨赤道且横越国际日期变更线的国家。属热带海洋气候。年均气温32℃，年均降水量1600毫米。基里巴斯陆地面积811平方公里，海洋专属经济区面积350万平方公里，人口11.6万(2018年)，首都系塔拉瓦。
+据悉，基里巴斯系本周内第二个宣布与台当局“断交”的国家。
+9月16日，所罗门群岛政府召开内阁会议，决定承认一个中国原则，同台湾“断交”。中国外交部发言人华春莹当日回应称，中方支持所罗门群岛作为主权独立国家自主作出的这一重要决定。中方愿意与所方共同努力，开启两国关系发展新的广阔前景。她指出，世界上只有一个中国，中华人民共和国政府是代表全中国的唯一合法政府，台湾是中国领土不可分割的一部分。这是一个基本事实，也是国际社会的普遍共识。在一个中国原则基础上，中国已经同全世界178个国家建立了正式外交关系。所罗门群岛政府作出承认一个中国原则并同中国建交的决定，再次充分表明一个中国原则是人心所向，大势所趋，势不可挡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　原标题：蔡英文话音未落，咣！又“断交”一个
+　　“基里巴斯跟我国外交关系的变化，外交部都全程掌握当中。”就在今天上午，蔡英文出席“桃园铁路改造工程开工典礼”时如是说。结果话音刚落，基里巴斯就宣布与台“断交”。
+　　长安街知事（微信ID：Capitalnews）注意到，5天内台湾连失“友邦”，目前所谓“邦交国”仅剩15个。
+ 20日上午，蔡英文出席活动时宣称“一切尽在掌握”。图源：中时电子报20日上午，蔡英文出席活动时宣称“一切尽在掌握”。图源：中时电子报
+　　台湾“东森新闻云”《联合报》等媒体报道，基里巴斯20日与台当局“断交”，确定成为蔡英文2016年上任至今，与台“断交”的第7个“邦交国”。前6个分别是从圣多美和普林西比、巴拿马、多米尼加、布基纳法索、萨尔瓦多和所罗门群岛。
+　　“中时电子报”此前报道称，基里巴斯反对党表示，他们被告知该国政府已决定终止与台当局的“外交”关系。
+　　随着本月16日所罗门群岛宣布与台“断交”，台当局遭遇“断交潮”。
+　　尽管17日晚，蔡英文出席“中美洲独立198周年纪念酒会”全力巩固其他“邦交国”，试图在经贸、人文交流方面进行拉拢。但这还是抵挡不住台湾“友邦”们出现松动迹象。
+　　《环球时报》曾评论称，完全可以预期，台湾“外交”最终将被窒息，变成零“邦交国”。台当局无论与谁接触，都矮人一头，所谓“台湾独立”将是国际政治史上空前的笑柄。
+　　9月11日，国台办举行例行新闻发布会，发言人马晓光在回答所罗门群岛或与台“断交”问题时表示，坚持一个中国原则，是国际关系准则和国际社会的普遍共识。顺应这一时代潮流是绝大多数国家的选择。
+点击进入专题：
+台湾再现"断交"潮
+责任编辑：张申</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原标题：【辉煌七十载·老外在中国】德国研究生：中国的生态环境持续改善
+ 【辉煌七十载·老外在中国】德国研究生-中国的生态环境持续改善
+
+司徒睿姗，来自德国，现在是北京大学燕京学堂的硕士生。
+因为小时候和家人在上海生活了五年，所以对她而言，中国早已不是陌生的国家。在中国，她可以感受到家的温暖。
+20年过去，司徒睿姗眼中的中国发生了巨大变化，其中最让她感到吃惊的是环境的转变，雾霾少多了，天空更蓝了。
+她相信，中国会不断出台更好的新政策让人民的生活环境变得更宜人，她希望有朝一日可以为中国的蓝天贡献自己的力量。
+标签： 老外在中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6169,12 +5195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -6190,7 +5222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6201,6 +5233,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6506,10 +5545,2545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="65.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>948</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2">
+        <v>902</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3722</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2">
+        <v>337</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2">
+        <v>372</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2">
+        <v>498</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2">
+        <v>491</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2">
+        <v>105</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2">
+        <v>123</v>
+      </c>
+      <c r="H13" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="2">
+        <v>23</v>
+      </c>
+      <c r="H14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="2">
+        <v>79</v>
+      </c>
+      <c r="H19" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="2">
+        <v>136</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="2">
+        <v>51</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="2">
+        <v>22</v>
+      </c>
+      <c r="H27" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="2">
+        <v>24</v>
+      </c>
+      <c r="H28" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="2">
+        <v>104</v>
+      </c>
+      <c r="H29" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="2">
+        <v>42</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="2">
+        <v>105</v>
+      </c>
+      <c r="H31" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="2">
+        <v>108</v>
+      </c>
+      <c r="H32" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="2">
+        <v>261</v>
+      </c>
+      <c r="H33" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1572</v>
+      </c>
+      <c r="H35" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="2">
+        <v>143</v>
+      </c>
+      <c r="H39" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="2">
+        <v>32</v>
+      </c>
+      <c r="H40" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="2">
+        <v>48</v>
+      </c>
+      <c r="H41" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="2">
+        <v>287</v>
+      </c>
+      <c r="H43" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="337.5" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" s="2">
+        <v>44</v>
+      </c>
+      <c r="H52" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="2">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G56" s="2">
+        <v>17</v>
+      </c>
+      <c r="H56" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G57" s="2">
+        <v>71</v>
+      </c>
+      <c r="H57" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G58" s="2">
+        <v>46</v>
+      </c>
+      <c r="H58" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G59" s="2">
+        <v>7</v>
+      </c>
+      <c r="H59" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G60" s="2">
+        <v>70</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="351" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G61" s="2">
+        <v>143</v>
+      </c>
+      <c r="H61" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G62" s="2">
+        <v>32</v>
+      </c>
+      <c r="H62" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" s="2">
+        <v>48</v>
+      </c>
+      <c r="H63" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="324" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G64" s="2">
+        <v>24</v>
+      </c>
+      <c r="H64" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="2">
+        <v>55</v>
+      </c>
+      <c r="H65" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="2">
+        <v>19</v>
+      </c>
+      <c r="H66" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="2">
+        <v>37</v>
+      </c>
+      <c r="H67" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G68" s="2">
+        <v>65</v>
+      </c>
+      <c r="H68" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="2">
+        <v>96</v>
+      </c>
+      <c r="H69" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G70" s="2">
+        <v>36</v>
+      </c>
+      <c r="H70" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G71" s="2">
+        <v>36</v>
+      </c>
+      <c r="H71" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G72" s="2">
+        <v>421</v>
+      </c>
+      <c r="H72" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="378" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="2">
+        <v>23</v>
+      </c>
+      <c r="H73" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" s="2">
+        <v>34</v>
+      </c>
+      <c r="H74" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G75" s="2">
+        <v>97</v>
+      </c>
+      <c r="H75" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G76" s="2">
+        <v>80</v>
+      </c>
+      <c r="H76" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G77" s="2">
+        <v>18</v>
+      </c>
+      <c r="H77" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" s="2">
+        <v>298</v>
+      </c>
+      <c r="H78" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" s="2">
+        <v>81</v>
+      </c>
+      <c r="H79" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G81" s="2">
+        <v>763</v>
+      </c>
+      <c r="H81" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="2">
+        <v>162</v>
+      </c>
+      <c r="H82" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G83" s="2">
+        <v>703</v>
+      </c>
+      <c r="H83" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G84" s="2">
+        <v>3071</v>
+      </c>
+      <c r="H84" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" s="2">
+        <v>157</v>
+      </c>
+      <c r="H85" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G86" s="2">
+        <v>91</v>
+      </c>
+      <c r="H86" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="283.5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G88" s="2">
+        <v>6</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G91" s="2">
+        <v>13</v>
+      </c>
+      <c r="H91" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G92" s="2">
+        <v>26</v>
+      </c>
+      <c r="H92" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="378" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G93" s="2">
+        <v>4</v>
+      </c>
+      <c r="H93" s="2">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48" location="304868854"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54" location="p=1"/>
+    <hyperlink ref="D56" r:id="rId55" location="p=1"/>
+    <hyperlink ref="D57" r:id="rId56" location="p=1"/>
+    <hyperlink ref="D58" r:id="rId57" location="p=1"/>
+    <hyperlink ref="D59" r:id="rId58" location="p=1"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90" location="p=EPGKQH6F05HE0005NOS"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId93"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G178"/>
+  <sheetViews>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection sqref="A1:G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6523,7 +8097,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -6542,10 +8116,13 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -6562,10 +8139,13 @@
       <c r="F2" s="2">
         <v>948</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -6582,10 +8162,13 @@
       <c r="F3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -6602,10 +8185,13 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -6622,10 +8208,13 @@
       <c r="F5" s="2">
         <v>902</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -6642,10 +8231,13 @@
       <c r="F6" s="2">
         <v>3722</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -6662,10 +8254,13 @@
       <c r="F7" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -6682,10 +8277,13 @@
       <c r="F8" s="2">
         <v>337</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
@@ -6702,10 +8300,13 @@
       <c r="F9" s="2">
         <v>372</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>35</v>
@@ -6722,10 +8323,13 @@
       <c r="F10" s="2">
         <v>498</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>38</v>
@@ -6742,10 +8346,13 @@
       <c r="F11" s="2">
         <v>491</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>43</v>
@@ -6762,10 +8369,13 @@
       <c r="F12" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>46</v>
@@ -6782,10 +8392,13 @@
       <c r="F13" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>50</v>
@@ -6802,10 +8415,13 @@
       <c r="F14" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>54</v>
@@ -6822,10 +8438,13 @@
       <c r="F15" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>58</v>
@@ -6842,511 +8461,568 @@
       <c r="F16" s="2">
         <v>69</v>
       </c>
+      <c r="G16" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F17" s="2">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F18" s="2">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F19" s="2">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="G19" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>85</v>
+      <c r="G21" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>110</v>
+      <c r="G22" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
+        <v>542</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F25" s="2">
-        <v>3</v>
+        <v>136</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>538</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F26" s="2">
+        <v>51</v>
+      </c>
+      <c r="G26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="G27" s="2">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F28" s="2">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="G28" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="G29" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>115</v>
+        <v>539</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>116</v>
+        <v>42</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="2">
-        <v>79</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
+      </c>
+      <c r="G31" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
+      </c>
+      <c r="G32" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>261</v>
+      </c>
+      <c r="G33" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
       </c>
+      <c r="G34" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>1572</v>
+      </c>
+      <c r="G35" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="F36" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F37" s="2">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F38" s="2">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F39" s="2">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="G39" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F40" s="2">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="G40" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>150</v>
@@ -7355,15 +9031,18 @@
         <v>151</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="F41" s="2">
-        <v>104</v>
+        <v>48</v>
+      </c>
+      <c r="G41" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>152</v>
@@ -7375,15 +9054,18 @@
         <v>154</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="F42" s="2">
-        <v>42</v>
+        <v>77</v>
+      </c>
+      <c r="G42" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>155</v>
@@ -7395,1579 +9077,1345 @@
         <v>157</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F43" s="2">
-        <v>105</v>
+        <v>287</v>
+      </c>
+      <c r="G43" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F44" s="2">
-        <v>108</v>
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F45" s="2">
-        <v>261</v>
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="F46" s="2">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>175</v>
+      <c r="G47" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="F48" s="2">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F49" s="2">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="F50" s="2">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="F51" s="2">
-        <v>1572</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>189</v>
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F52" s="2">
-        <v>8</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>194</v>
+        <v>44</v>
+      </c>
+      <c r="G52" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
       </c>
+      <c r="G53" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
       </c>
+      <c r="G54" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F55" s="2">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="G55" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="F56" s="2">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G56" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="F57" s="2">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="G57" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="F58" s="2">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="G58" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F59" s="2">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="G59" s="2">
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="F60" s="2">
-        <v>143</v>
+        <v>70</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F61" s="2">
-        <v>32</v>
+        <v>143</v>
+      </c>
+      <c r="G61" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="F62" s="2">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="G62" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F63" s="2">
-        <v>77</v>
+        <v>48</v>
+      </c>
+      <c r="G63" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F64" s="2">
-        <v>287</v>
+        <v>24</v>
+      </c>
+      <c r="G64" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="F65" s="2">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="G65" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="F66" s="2">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="G66" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F67" s="2">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="G67" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="F68" s="2">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G68" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="F69" s="2">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="G69" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>255</v>
+        <v>120</v>
       </c>
       <c r="F70" s="2">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G70" s="2">
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F71" s="2">
-        <v>0</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>260</v>
+        <v>36</v>
+      </c>
+      <c r="G71" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="F72" s="2">
-        <v>0</v>
+        <v>421</v>
+      </c>
+      <c r="G72" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="F73" s="2">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="G73" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="C74" s="3" t="s">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F74" s="2">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="G74" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F75" s="2">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="G75" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="F76" s="2">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="G76" s="2">
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F77" s="2">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G77" s="2">
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="F78" s="2">
-        <v>71</v>
+        <v>298</v>
+      </c>
+      <c r="G78" s="2">
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="F79" s="2">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="G79" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F81" s="2">
+        <v>763</v>
+      </c>
+      <c r="G81" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="2">
+        <v>162</v>
+      </c>
+      <c r="G82" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F83" s="2">
+        <v>703</v>
+      </c>
+      <c r="G83" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="F84" s="2">
+        <v>3071</v>
+      </c>
+      <c r="G84" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F80" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="2">
+        <v>157</v>
+      </c>
+      <c r="G85" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F81" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F86" s="2">
+        <v>91</v>
+      </c>
+      <c r="G86" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F82" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F83" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="E87" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F84" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="D88" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="F88" s="2">
+        <v>6</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F85" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F86" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="E89" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F87" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="D90" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F88" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E91" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F91" s="2">
+        <v>13</v>
+      </c>
+      <c r="G91" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F89" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B90" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="F92" s="2">
+        <v>26</v>
+      </c>
+      <c r="G92" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B91" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F91" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F92" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="F93" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="G93" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F94" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F95" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F96" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F97" s="2">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F98" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F99" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F100" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F101" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F102" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F103" s="2">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F104" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F105" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F106" s="2">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F107" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F108" s="2">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F109" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F110" s="2">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F111" s="2">
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F112" s="2">
-        <v>157</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F113" s="2">
-        <v>91</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F114" s="2">
-        <v>0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F115" s="2">
-        <v>6</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F116" s="2">
-        <v>0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F117" s="2">
-        <v>0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F118" s="2">
-        <v>13</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>411</v>
+        <v>327</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>410</v>
+        <v>326</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>412</v>
+        <v>328</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>413</v>
+        <v>210</v>
       </c>
       <c r="F119" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>414</v>
+        <v>329</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>415</v>
+        <v>330</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>416</v>
+        <v>331</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
       <c r="F120" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>419</v>
+        <v>334</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>421</v>
+        <v>335</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="F121" s="2">
         <v>0</v>
@@ -8975,19 +10423,19 @@
     </row>
     <row r="122" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>422</v>
+        <v>337</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>423</v>
+        <v>338</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>424</v>
+        <v>339</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>425</v>
+        <v>336</v>
       </c>
       <c r="F122" s="2">
         <v>0</v>
@@ -8995,19 +10443,19 @@
     </row>
     <row r="123" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>427</v>
+        <v>342</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>428</v>
+        <v>341</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="F123" s="2">
         <v>0</v>
@@ -9015,19 +10463,13 @@
     </row>
     <row r="124" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>430</v>
+        <v>325</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>431</v>
+        <v>343</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>429</v>
+        <v>344</v>
       </c>
       <c r="F124" s="2">
         <v>0</v>
@@ -9035,19 +10477,19 @@
     </row>
     <row r="125" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>433</v>
+        <v>345</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>435</v>
+        <v>346</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>434</v>
+        <v>347</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>32</v>
+        <v>348</v>
       </c>
       <c r="F125" s="2">
         <v>0</v>
@@ -9055,13 +10497,19 @@
     </row>
     <row r="126" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>436</v>
+        <v>349</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>437</v>
+        <v>351</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="F126" s="2">
         <v>0</v>
@@ -9069,19 +10517,19 @@
     </row>
     <row r="127" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>438</v>
+        <v>353</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>441</v>
+        <v>120</v>
       </c>
       <c r="F127" s="2">
         <v>0</v>
@@ -9089,19 +10537,19 @@
     </row>
     <row r="128" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>443</v>
+        <v>126</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>442</v>
+        <v>354</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="F128" s="2">
         <v>0</v>
@@ -9109,19 +10557,19 @@
     </row>
     <row r="129" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>445</v>
+        <v>355</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>170</v>
+        <v>359</v>
       </c>
       <c r="F129" s="2">
         <v>0</v>
@@ -9129,19 +10577,19 @@
     </row>
     <row r="130" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>183</v>
+        <v>361</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>447</v>
+        <v>357</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F130" s="2">
         <v>0</v>
@@ -9149,19 +10597,19 @@
     </row>
     <row r="131" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>448</v>
+        <v>363</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>453</v>
+        <v>365</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>452</v>
+        <v>366</v>
       </c>
       <c r="F131" s="2">
         <v>0</v>
@@ -9169,19 +10617,19 @@
     </row>
     <row r="132" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>454</v>
+        <v>368</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>455</v>
+        <v>369</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F132" s="2">
         <v>0</v>
@@ -9189,19 +10637,19 @@
     </row>
     <row r="133" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>457</v>
+        <v>371</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>456</v>
+        <v>370</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>459</v>
+        <v>231</v>
       </c>
       <c r="F133" s="2">
         <v>0</v>
@@ -9209,19 +10657,19 @@
     </row>
     <row r="134" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>328</v>
+        <v>32</v>
       </c>
       <c r="F134" s="2">
         <v>0</v>
@@ -9229,19 +10677,19 @@
     </row>
     <row r="135" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>464</v>
+        <v>393</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>465</v>
+        <v>395</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>318</v>
+        <v>394</v>
       </c>
       <c r="F135" s="2">
         <v>0</v>
@@ -9249,19 +10697,19 @@
     </row>
     <row r="136" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>467</v>
+        <v>378</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>466</v>
+        <v>377</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>468</v>
+        <v>380</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>32</v>
+        <v>379</v>
       </c>
       <c r="F136" s="2">
         <v>0</v>
@@ -9269,19 +10717,19 @@
     </row>
     <row r="137" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>485</v>
+        <v>381</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>487</v>
+        <v>383</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>486</v>
+        <v>62</v>
       </c>
       <c r="F137" s="2">
         <v>0</v>
@@ -9289,19 +10737,19 @@
     </row>
     <row r="138" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>471</v>
+        <v>396</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>470</v>
+        <v>384</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>473</v>
+        <v>398</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>472</v>
+        <v>397</v>
       </c>
       <c r="F138" s="2">
         <v>0</v>
@@ -9309,19 +10757,19 @@
     </row>
     <row r="139" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>474</v>
+        <v>386</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>65</v>
+        <v>405</v>
       </c>
       <c r="F139" s="2">
         <v>0</v>
@@ -9329,128 +10777,131 @@
     </row>
     <row r="140" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>488</v>
+        <v>399</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>477</v>
+        <v>400</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>490</v>
+        <v>404</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>489</v>
+        <v>403</v>
       </c>
       <c r="F140" s="2">
         <v>0</v>
       </c>
+      <c r="G140" s="2" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="141" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>479</v>
+        <v>407</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>478</v>
+        <v>408</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>498</v>
+        <v>409</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>497</v>
+        <v>63</v>
       </c>
       <c r="F141" s="2">
         <v>0</v>
       </c>
+      <c r="G141" s="2" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="142" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>491</v>
+        <v>412</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>492</v>
+        <v>411</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>496</v>
+        <v>414</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>495</v>
+        <v>413</v>
       </c>
       <c r="F142" s="2">
         <v>0</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>493</v>
+        <v>410</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>499</v>
+        <v>415</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>500</v>
+        <v>387</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>501</v>
+        <v>415</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>68</v>
+        <v>415</v>
       </c>
       <c r="F143" s="2">
         <v>0</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>494</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="F144" s="2">
         <v>0</v>
       </c>
-      <c r="G144" s="2" t="s">
-        <v>502</v>
-      </c>
     </row>
     <row r="145" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="F145" s="2">
         <v>0</v>
@@ -9458,19 +10909,19 @@
     </row>
     <row r="146" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>481</v>
+        <v>390</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>511</v>
+        <v>423</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>508</v>
+        <v>147</v>
       </c>
       <c r="F146" s="2">
         <v>0</v>
@@ -9478,19 +10929,19 @@
     </row>
     <row r="147" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>512</v>
+        <v>424</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>482</v>
+        <v>391</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>513</v>
+        <v>426</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>222</v>
+        <v>425</v>
       </c>
       <c r="F147" s="2">
         <v>0</v>
@@ -9498,19 +10949,19 @@
     </row>
     <row r="148" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>514</v>
+        <v>427</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>516</v>
+        <v>429</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>515</v>
+        <v>428</v>
       </c>
       <c r="F148" s="2">
         <v>0</v>
@@ -9518,19 +10969,19 @@
     </row>
     <row r="149" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>517</v>
+        <v>432</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>484</v>
+        <v>431</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>519</v>
+        <v>434</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>518</v>
+        <v>433</v>
       </c>
       <c r="F149" s="2">
         <v>0</v>
@@ -9538,19 +10989,19 @@
     </row>
     <row r="150" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>522</v>
+        <v>435</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>521</v>
+        <v>436</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>524</v>
+        <v>438</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>523</v>
+        <v>437</v>
       </c>
       <c r="F150" s="2">
         <v>0</v>
@@ -9558,19 +11009,19 @@
     </row>
     <row r="151" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>525</v>
+        <v>439</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>526</v>
+        <v>440</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>528</v>
+        <v>441</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>527</v>
+        <v>437</v>
       </c>
       <c r="F151" s="2">
         <v>0</v>
@@ -9578,19 +11029,19 @@
     </row>
     <row r="152" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>529</v>
+        <v>443</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>531</v>
+        <v>445</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>527</v>
+        <v>444</v>
       </c>
       <c r="F152" s="2">
         <v>0</v>
@@ -9598,19 +11049,19 @@
     </row>
     <row r="153" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>533</v>
+        <v>446</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>532</v>
+        <v>448</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>535</v>
+        <v>447</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="F153" s="2">
         <v>0</v>
@@ -9618,19 +11069,19 @@
     </row>
     <row r="154" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>538</v>
+        <v>450</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>537</v>
+        <v>451</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="F154" s="2">
         <v>0</v>
@@ -9638,19 +11089,19 @@
     </row>
     <row r="155" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>539</v>
+        <v>452</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>540</v>
+        <v>453</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>541</v>
+        <v>454</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>574</v>
+        <v>482</v>
       </c>
       <c r="F155" s="2">
         <v>0</v>
@@ -9658,19 +11109,19 @@
     </row>
     <row r="156" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>542</v>
+        <v>455</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>543</v>
+        <v>456</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>544</v>
+        <v>457</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>572</v>
+        <v>444</v>
       </c>
       <c r="F156" s="2">
         <v>0</v>
@@ -9678,19 +11129,19 @@
     </row>
     <row r="157" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>545</v>
+        <v>458</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>546</v>
+        <v>460</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>547</v>
+        <v>459</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
       <c r="F157" s="2">
         <v>0</v>
@@ -9698,19 +11149,19 @@
     </row>
     <row r="158" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>548</v>
+        <v>461</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>550</v>
+        <v>462</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>549</v>
+        <v>463</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>573</v>
+        <v>482</v>
       </c>
       <c r="F158" s="2">
         <v>0</v>
@@ -9718,19 +11169,19 @@
     </row>
     <row r="159" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>552</v>
+        <v>466</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>553</v>
+        <v>465</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>572</v>
+        <v>481</v>
       </c>
       <c r="F159" s="2">
         <v>0</v>
@@ -9738,19 +11189,19 @@
     </row>
     <row r="160" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>556</v>
+        <v>468</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>555</v>
+        <v>469</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
       <c r="F160" s="2">
         <v>0</v>
@@ -9758,19 +11209,19 @@
     </row>
     <row r="161" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>558</v>
+        <v>480</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>559</v>
+        <v>471</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="F161" s="2">
         <v>0</v>
@@ -9778,19 +11229,19 @@
     </row>
     <row r="162" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>560</v>
+        <v>472</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>570</v>
+        <v>473</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>561</v>
+        <v>474</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>534</v>
+        <v>479</v>
       </c>
       <c r="F162" s="2">
         <v>0</v>
@@ -9798,19 +11249,19 @@
     </row>
     <row r="163" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>562</v>
+        <v>475</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>563</v>
+        <v>476</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>564</v>
+        <v>477</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>569</v>
+        <v>478</v>
       </c>
       <c r="F163" s="2">
         <v>0</v>
@@ -9818,19 +11269,19 @@
     </row>
     <row r="164" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>565</v>
+        <v>485</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>566</v>
+        <v>486</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>567</v>
+        <v>488</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>568</v>
+        <v>487</v>
       </c>
       <c r="F164" s="2">
         <v>0</v>
@@ -9838,19 +11289,19 @@
     </row>
     <row r="165" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>575</v>
+        <v>489</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>576</v>
+        <v>490</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>578</v>
+        <v>491</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>577</v>
+        <v>444</v>
       </c>
       <c r="F165" s="2">
         <v>0</v>
@@ -9858,19 +11309,19 @@
     </row>
     <row r="166" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>579</v>
+        <v>493</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>580</v>
+        <v>492</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>581</v>
+        <v>494</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="F166" s="2">
         <v>0</v>
@@ -9878,19 +11329,19 @@
     </row>
     <row r="167" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>583</v>
+        <v>495</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>584</v>
+        <v>497</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="F167" s="2">
         <v>0</v>
@@ -9898,19 +11349,19 @@
     </row>
     <row r="168" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>585</v>
+        <v>499</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>586</v>
+        <v>500</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>587</v>
+        <v>502</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>588</v>
+        <v>501</v>
       </c>
       <c r="F168" s="2">
         <v>0</v>
@@ -9918,19 +11369,19 @@
     </row>
     <row r="169" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>589</v>
+        <v>504</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>590</v>
+        <v>503</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>592</v>
+        <v>505</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>591</v>
+        <v>506</v>
       </c>
       <c r="F169" s="2">
         <v>0</v>
@@ -9938,19 +11389,19 @@
     </row>
     <row r="170" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>594</v>
+        <v>507</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>593</v>
+        <v>509</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>595</v>
+        <v>510</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>596</v>
+        <v>508</v>
       </c>
       <c r="F170" s="2">
         <v>0</v>
@@ -9958,19 +11409,19 @@
     </row>
     <row r="171" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>599</v>
+        <v>512</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>600</v>
+        <v>513</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>598</v>
+        <v>482</v>
       </c>
       <c r="F171" s="2">
         <v>0</v>
@@ -9978,19 +11429,19 @@
     </row>
     <row r="172" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>601</v>
+        <v>514</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>602</v>
+        <v>515</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>603</v>
+        <v>517</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="F172" s="2">
         <v>0</v>
@@ -9998,19 +11449,19 @@
     </row>
     <row r="173" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>606</v>
+        <v>479</v>
       </c>
       <c r="F173" s="2">
         <v>0</v>
@@ -10018,19 +11469,19 @@
     </row>
     <row r="174" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>608</v>
+        <v>521</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>609</v>
+        <v>522</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>610</v>
+        <v>523</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>569</v>
+        <v>478</v>
       </c>
       <c r="F174" s="2">
         <v>0</v>
@@ -10038,19 +11489,19 @@
     </row>
     <row r="175" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>611</v>
+        <v>524</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>612</v>
+        <v>525</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>613</v>
+        <v>527</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>568</v>
+        <v>526</v>
       </c>
       <c r="F175" s="2">
         <v>0</v>
@@ -10058,19 +11509,19 @@
     </row>
     <row r="176" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>614</v>
+        <v>528</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>615</v>
+        <v>529</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>617</v>
+        <v>531</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>616</v>
+        <v>530</v>
       </c>
       <c r="F176" s="2">
         <v>0</v>
@@ -10078,19 +11529,19 @@
     </row>
     <row r="177" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>618</v>
+        <v>532</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>621</v>
+        <v>534</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>620</v>
+        <v>444</v>
       </c>
       <c r="F177" s="2">
         <v>0</v>
@@ -10098,45 +11549,26 @@
     </row>
     <row r="178" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>622</v>
+        <v>535</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>623</v>
+        <v>536</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>624</v>
+        <v>537</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="F178" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F179" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="B1:B178"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -10154,15 +11586,15 @@
     <hyperlink ref="C14" r:id="rId13"/>
     <hyperlink ref="C15" r:id="rId14"/>
     <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C25" r:id="rId16"/>
-    <hyperlink ref="C17" r:id="rId17"/>
-    <hyperlink ref="C18" r:id="rId18"/>
-    <hyperlink ref="C19" r:id="rId19"/>
-    <hyperlink ref="C20" r:id="rId20"/>
-    <hyperlink ref="C21" r:id="rId21"/>
-    <hyperlink ref="C22" r:id="rId22"/>
-    <hyperlink ref="C23" r:id="rId23"/>
-    <hyperlink ref="C24" r:id="rId24"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
     <hyperlink ref="C26" r:id="rId25"/>
     <hyperlink ref="C27" r:id="rId26"/>
     <hyperlink ref="C28" r:id="rId27"/>
@@ -10186,17 +11618,17 @@
     <hyperlink ref="C46" r:id="rId45"/>
     <hyperlink ref="C47" r:id="rId46"/>
     <hyperlink ref="C48" r:id="rId47"/>
-    <hyperlink ref="C49" r:id="rId48"/>
+    <hyperlink ref="C49" r:id="rId48" location="304868854"/>
     <hyperlink ref="C50" r:id="rId49"/>
     <hyperlink ref="C51" r:id="rId50"/>
     <hyperlink ref="C52" r:id="rId51"/>
     <hyperlink ref="C53" r:id="rId52"/>
     <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C56" r:id="rId55"/>
-    <hyperlink ref="C57" r:id="rId56"/>
-    <hyperlink ref="C58" r:id="rId57"/>
-    <hyperlink ref="C59" r:id="rId58"/>
+    <hyperlink ref="C55" r:id="rId54" location="p=1"/>
+    <hyperlink ref="C56" r:id="rId55" location="p=1"/>
+    <hyperlink ref="C57" r:id="rId56" location="p=1"/>
+    <hyperlink ref="C58" r:id="rId57" location="p=1"/>
+    <hyperlink ref="C59" r:id="rId58" location="p=1"/>
     <hyperlink ref="C60" r:id="rId59"/>
     <hyperlink ref="C61" r:id="rId60"/>
     <hyperlink ref="C62" r:id="rId61"/>
@@ -10207,17 +11639,17 @@
     <hyperlink ref="C67" r:id="rId66"/>
     <hyperlink ref="C68" r:id="rId67"/>
     <hyperlink ref="C69" r:id="rId68"/>
-    <hyperlink ref="C70" r:id="rId69" location="304868854"/>
+    <hyperlink ref="C70" r:id="rId69"/>
     <hyperlink ref="C71" r:id="rId70"/>
     <hyperlink ref="C72" r:id="rId71"/>
     <hyperlink ref="C73" r:id="rId72"/>
     <hyperlink ref="C74" r:id="rId73"/>
     <hyperlink ref="C75" r:id="rId74"/>
-    <hyperlink ref="C76" r:id="rId75" location="p=1"/>
-    <hyperlink ref="C77" r:id="rId76" location="p=1"/>
-    <hyperlink ref="C78" r:id="rId77" location="p=1"/>
-    <hyperlink ref="C79" r:id="rId78" location="p=1"/>
-    <hyperlink ref="C80" r:id="rId79" location="p=1"/>
+    <hyperlink ref="C76" r:id="rId75"/>
+    <hyperlink ref="C77" r:id="rId76"/>
+    <hyperlink ref="C78" r:id="rId77"/>
+    <hyperlink ref="C79" r:id="rId78"/>
+    <hyperlink ref="C80" r:id="rId79"/>
     <hyperlink ref="C81" r:id="rId80"/>
     <hyperlink ref="C82" r:id="rId81"/>
     <hyperlink ref="C83" r:id="rId82"/>
@@ -10228,97 +11660,345 @@
     <hyperlink ref="C88" r:id="rId87"/>
     <hyperlink ref="C89" r:id="rId88"/>
     <hyperlink ref="C90" r:id="rId89"/>
-    <hyperlink ref="C91" r:id="rId90"/>
+    <hyperlink ref="C91" r:id="rId90" location="p=EPGKQH6F05HE0005NOS"/>
     <hyperlink ref="C92" r:id="rId91"/>
     <hyperlink ref="C93" r:id="rId92"/>
-    <hyperlink ref="C94" r:id="rId93"/>
-    <hyperlink ref="C95" r:id="rId94"/>
-    <hyperlink ref="C96" r:id="rId95"/>
-    <hyperlink ref="C97" r:id="rId96"/>
-    <hyperlink ref="C98" r:id="rId97"/>
-    <hyperlink ref="C99" r:id="rId98"/>
-    <hyperlink ref="C100" r:id="rId99"/>
-    <hyperlink ref="C101" r:id="rId100"/>
-    <hyperlink ref="C102" r:id="rId101"/>
-    <hyperlink ref="C103" r:id="rId102"/>
-    <hyperlink ref="C104" r:id="rId103"/>
-    <hyperlink ref="C105" r:id="rId104"/>
-    <hyperlink ref="C106" r:id="rId105"/>
-    <hyperlink ref="C107" r:id="rId106"/>
-    <hyperlink ref="C108" r:id="rId107"/>
-    <hyperlink ref="C109" r:id="rId108"/>
-    <hyperlink ref="C110" r:id="rId109"/>
-    <hyperlink ref="C111" r:id="rId110"/>
-    <hyperlink ref="C112" r:id="rId111"/>
-    <hyperlink ref="C113" r:id="rId112"/>
-    <hyperlink ref="C114" r:id="rId113"/>
-    <hyperlink ref="C115" r:id="rId114"/>
-    <hyperlink ref="C116" r:id="rId115"/>
-    <hyperlink ref="C117" r:id="rId116"/>
-    <hyperlink ref="C118" r:id="rId117" location="p=EPGKQH6F05HE0005NOS"/>
-    <hyperlink ref="C119" r:id="rId118"/>
-    <hyperlink ref="C120" r:id="rId119"/>
-    <hyperlink ref="C121" r:id="rId120"/>
-    <hyperlink ref="C122" r:id="rId121"/>
-    <hyperlink ref="C123" r:id="rId122"/>
-    <hyperlink ref="C124" r:id="rId123"/>
-    <hyperlink ref="C125" r:id="rId124"/>
-    <hyperlink ref="C126" r:id="rId125"/>
-    <hyperlink ref="C127" r:id="rId126"/>
-    <hyperlink ref="C128" r:id="rId127"/>
-    <hyperlink ref="C129" r:id="rId128"/>
-    <hyperlink ref="C130" r:id="rId129"/>
-    <hyperlink ref="C131" r:id="rId130"/>
-    <hyperlink ref="C132" r:id="rId131"/>
-    <hyperlink ref="C133" r:id="rId132"/>
-    <hyperlink ref="C134" r:id="rId133"/>
-    <hyperlink ref="C135" r:id="rId134"/>
-    <hyperlink ref="C136" r:id="rId135"/>
-    <hyperlink ref="C137" r:id="rId136"/>
-    <hyperlink ref="C138" r:id="rId137"/>
-    <hyperlink ref="C139" r:id="rId138"/>
-    <hyperlink ref="C140" r:id="rId139"/>
-    <hyperlink ref="C141" r:id="rId140"/>
-    <hyperlink ref="C145" r:id="rId141"/>
-    <hyperlink ref="C146" r:id="rId142"/>
-    <hyperlink ref="C147" r:id="rId143"/>
-    <hyperlink ref="C148" r:id="rId144"/>
-    <hyperlink ref="C149" r:id="rId145"/>
-    <hyperlink ref="C142" r:id="rId146"/>
-    <hyperlink ref="C143" r:id="rId147"/>
-    <hyperlink ref="C144" r:id="rId148"/>
-    <hyperlink ref="C150" r:id="rId149"/>
-    <hyperlink ref="C151" r:id="rId150"/>
-    <hyperlink ref="C152" r:id="rId151"/>
-    <hyperlink ref="C153" r:id="rId152"/>
-    <hyperlink ref="C154" r:id="rId153"/>
-    <hyperlink ref="C155" r:id="rId154"/>
-    <hyperlink ref="C156" r:id="rId155"/>
-    <hyperlink ref="C157" r:id="rId156"/>
-    <hyperlink ref="C158" r:id="rId157"/>
-    <hyperlink ref="C159" r:id="rId158"/>
-    <hyperlink ref="C160" r:id="rId159"/>
-    <hyperlink ref="C161" r:id="rId160"/>
-    <hyperlink ref="C162" r:id="rId161"/>
-    <hyperlink ref="C163" r:id="rId162"/>
-    <hyperlink ref="C164" r:id="rId163"/>
-    <hyperlink ref="C165" r:id="rId164"/>
-    <hyperlink ref="C166" r:id="rId165"/>
-    <hyperlink ref="C167" r:id="rId166"/>
-    <hyperlink ref="C168" r:id="rId167"/>
-    <hyperlink ref="C169" r:id="rId168"/>
-    <hyperlink ref="C170" r:id="rId169"/>
-    <hyperlink ref="C171" r:id="rId170"/>
-    <hyperlink ref="C172" r:id="rId171"/>
-    <hyperlink ref="C173" r:id="rId172"/>
-    <hyperlink ref="C174" r:id="rId173"/>
-    <hyperlink ref="C175" r:id="rId174"/>
-    <hyperlink ref="C176" r:id="rId175"/>
-    <hyperlink ref="C177" r:id="rId176"/>
-    <hyperlink ref="C178" r:id="rId177"/>
-    <hyperlink ref="C179" r:id="rId178"/>
+    <hyperlink ref="C119" r:id="rId93"/>
+    <hyperlink ref="C120" r:id="rId94"/>
+    <hyperlink ref="C121" r:id="rId95"/>
+    <hyperlink ref="C122" r:id="rId96"/>
+    <hyperlink ref="C123" r:id="rId97"/>
+    <hyperlink ref="C124" r:id="rId98"/>
+    <hyperlink ref="C125" r:id="rId99"/>
+    <hyperlink ref="C126" r:id="rId100"/>
+    <hyperlink ref="C127" r:id="rId101"/>
+    <hyperlink ref="C128" r:id="rId102"/>
+    <hyperlink ref="C129" r:id="rId103"/>
+    <hyperlink ref="C130" r:id="rId104"/>
+    <hyperlink ref="C131" r:id="rId105"/>
+    <hyperlink ref="C132" r:id="rId106"/>
+    <hyperlink ref="C133" r:id="rId107"/>
+    <hyperlink ref="C134" r:id="rId108"/>
+    <hyperlink ref="C135" r:id="rId109"/>
+    <hyperlink ref="C136" r:id="rId110"/>
+    <hyperlink ref="C137" r:id="rId111"/>
+    <hyperlink ref="C138" r:id="rId112"/>
+    <hyperlink ref="C139" r:id="rId113"/>
+    <hyperlink ref="C144" r:id="rId114"/>
+    <hyperlink ref="C145" r:id="rId115"/>
+    <hyperlink ref="C146" r:id="rId116"/>
+    <hyperlink ref="C147" r:id="rId117"/>
+    <hyperlink ref="C148" r:id="rId118"/>
+    <hyperlink ref="C140" r:id="rId119"/>
+    <hyperlink ref="C141" r:id="rId120"/>
+    <hyperlink ref="C142" r:id="rId121"/>
+    <hyperlink ref="C143" r:id="rId122"/>
+    <hyperlink ref="C149" r:id="rId123"/>
+    <hyperlink ref="C150" r:id="rId124"/>
+    <hyperlink ref="C151" r:id="rId125"/>
+    <hyperlink ref="C152" r:id="rId126"/>
+    <hyperlink ref="C153" r:id="rId127"/>
+    <hyperlink ref="C154" r:id="rId128"/>
+    <hyperlink ref="C155" r:id="rId129"/>
+    <hyperlink ref="C156" r:id="rId130"/>
+    <hyperlink ref="C157" r:id="rId131"/>
+    <hyperlink ref="C158" r:id="rId132"/>
+    <hyperlink ref="C159" r:id="rId133"/>
+    <hyperlink ref="C160" r:id="rId134"/>
+    <hyperlink ref="C161" r:id="rId135"/>
+    <hyperlink ref="C162" r:id="rId136"/>
+    <hyperlink ref="C163" r:id="rId137"/>
+    <hyperlink ref="C164" r:id="rId138"/>
+    <hyperlink ref="C165" r:id="rId139"/>
+    <hyperlink ref="C166" r:id="rId140"/>
+    <hyperlink ref="C167" r:id="rId141"/>
+    <hyperlink ref="C168" r:id="rId142"/>
+    <hyperlink ref="C169" r:id="rId143"/>
+    <hyperlink ref="C170" r:id="rId144"/>
+    <hyperlink ref="C171" r:id="rId145"/>
+    <hyperlink ref="C172" r:id="rId146"/>
+    <hyperlink ref="C173" r:id="rId147"/>
+    <hyperlink ref="C174" r:id="rId148"/>
+    <hyperlink ref="C175" r:id="rId149"/>
+    <hyperlink ref="C176" r:id="rId150"/>
+    <hyperlink ref="C177" r:id="rId151"/>
+    <hyperlink ref="C178" r:id="rId152"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId179"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId153"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="46.25" customWidth="1"/>
+    <col min="4" max="4" width="64.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>